--- a/ガントチャート_Over Poured.xlsx
+++ b/ガントチャート_Over Poured.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="10920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="進捗確認表" sheetId="19" r:id="rId1"/>
@@ -1513,7 +1513,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="39" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1729,16 +1729,156 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="45" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="46" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="47" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="47" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="47" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="47" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="47" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="47" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="41" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="48" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="48" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="48" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="48" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="48" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="49" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="183" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1760,159 +1900,22 @@
     <xf numFmtId="182" fontId="1" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="45" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="46" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="47" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="47" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="47" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="47" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="47" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="47" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="41" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="48" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="48" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="48" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="48" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="48" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="49" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="49" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="49" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2471,9 +2474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4:G4"/>
+      <selection pane="topRight" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -2530,202 +2533,202 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="80">
+      <c r="E1" s="121">
         <v>45761</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A5" s="70"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="76">
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="120">
         <f>H6</f>
         <v>45761</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76">
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120">
         <f>H5+7</f>
         <v>45768</v>
       </c>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76">
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120">
         <f>M5+7</f>
         <v>45775</v>
       </c>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76">
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120">
         <f>R5+7</f>
         <v>45782</v>
       </c>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76">
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120">
         <f>W5+7</f>
         <v>45789</v>
       </c>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="76">
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="120"/>
+      <c r="AG5" s="120">
         <f>AB5+7</f>
         <v>45796</v>
       </c>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="76"/>
-      <c r="AJ5" s="76"/>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="76">
+      <c r="AH5" s="120"/>
+      <c r="AI5" s="120"/>
+      <c r="AJ5" s="120"/>
+      <c r="AK5" s="120"/>
+      <c r="AL5" s="120">
         <f>AG5+7</f>
         <v>45803</v>
       </c>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="76"/>
-      <c r="AP5" s="76"/>
-      <c r="AQ5" s="76">
+      <c r="AM5" s="120"/>
+      <c r="AN5" s="120"/>
+      <c r="AO5" s="120"/>
+      <c r="AP5" s="120"/>
+      <c r="AQ5" s="120">
         <f>AL5+7</f>
         <v>45810</v>
       </c>
-      <c r="AR5" s="76"/>
-      <c r="AS5" s="76"/>
-      <c r="AT5" s="76"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76">
+      <c r="AR5" s="120"/>
+      <c r="AS5" s="120"/>
+      <c r="AT5" s="120"/>
+      <c r="AU5" s="120"/>
+      <c r="AV5" s="120">
         <f>AQ5+7</f>
         <v>45817</v>
       </c>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76">
+      <c r="AW5" s="120"/>
+      <c r="AX5" s="120"/>
+      <c r="AY5" s="120"/>
+      <c r="AZ5" s="120"/>
+      <c r="BA5" s="120">
         <f>AV5+7</f>
         <v>45824</v>
       </c>
-      <c r="BB5" s="76"/>
-      <c r="BC5" s="76"/>
-      <c r="BD5" s="76"/>
-      <c r="BE5" s="76"/>
-      <c r="BF5" s="76">
+      <c r="BB5" s="120"/>
+      <c r="BC5" s="120"/>
+      <c r="BD5" s="120"/>
+      <c r="BE5" s="120"/>
+      <c r="BF5" s="120">
         <f>BA5+7</f>
         <v>45831</v>
       </c>
-      <c r="BG5" s="76"/>
-      <c r="BH5" s="76"/>
-      <c r="BI5" s="76"/>
-      <c r="BJ5" s="76"/>
-      <c r="BK5" s="76">
+      <c r="BG5" s="120"/>
+      <c r="BH5" s="120"/>
+      <c r="BI5" s="120"/>
+      <c r="BJ5" s="120"/>
+      <c r="BK5" s="120">
         <f>BF5+7</f>
         <v>45838</v>
       </c>
-      <c r="BL5" s="76"/>
-      <c r="BM5" s="76"/>
-      <c r="BN5" s="76"/>
-      <c r="BO5" s="76"/>
-      <c r="BP5" s="76">
+      <c r="BL5" s="120"/>
+      <c r="BM5" s="120"/>
+      <c r="BN5" s="120"/>
+      <c r="BO5" s="120"/>
+      <c r="BP5" s="120">
         <f>BK5+7</f>
         <v>45845</v>
       </c>
-      <c r="BQ5" s="76"/>
-      <c r="BR5" s="76"/>
-      <c r="BS5" s="76"/>
-      <c r="BT5" s="76"/>
-      <c r="BU5" s="76">
+      <c r="BQ5" s="120"/>
+      <c r="BR5" s="120"/>
+      <c r="BS5" s="120"/>
+      <c r="BT5" s="120"/>
+      <c r="BU5" s="120">
         <f>BP5+7</f>
         <v>45852</v>
       </c>
-      <c r="BV5" s="76"/>
-      <c r="BW5" s="76"/>
-      <c r="BX5" s="76"/>
-      <c r="BY5" s="76"/>
-      <c r="BZ5" s="76">
+      <c r="BV5" s="120"/>
+      <c r="BW5" s="120"/>
+      <c r="BX5" s="120"/>
+      <c r="BY5" s="120"/>
+      <c r="BZ5" s="120">
         <f>BU5+7</f>
         <v>45859</v>
       </c>
-      <c r="CA5" s="76"/>
-      <c r="CB5" s="76"/>
-      <c r="CC5" s="76"/>
-      <c r="CD5" s="76"/>
-      <c r="CE5" s="76">
+      <c r="CA5" s="120"/>
+      <c r="CB5" s="120"/>
+      <c r="CC5" s="120"/>
+      <c r="CD5" s="120"/>
+      <c r="CE5" s="120">
         <f>BZ5+7</f>
         <v>45866</v>
       </c>
-      <c r="CF5" s="76"/>
-      <c r="CG5" s="76"/>
-      <c r="CH5" s="76"/>
-      <c r="CI5" s="76"/>
-      <c r="CJ5" s="76">
+      <c r="CF5" s="120"/>
+      <c r="CG5" s="120"/>
+      <c r="CH5" s="120"/>
+      <c r="CI5" s="120"/>
+      <c r="CJ5" s="120">
         <f>CE5+7</f>
         <v>45873</v>
       </c>
-      <c r="CK5" s="76"/>
-      <c r="CL5" s="76"/>
-      <c r="CM5" s="76"/>
-      <c r="CN5" s="76"/>
+      <c r="CK5" s="120"/>
+      <c r="CL5" s="120"/>
+      <c r="CM5" s="120"/>
+      <c r="CN5" s="120"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79" t="s">
+      <c r="E6" s="128"/>
+      <c r="F6" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="78"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -3372,7 +3375,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="88"/>
+      <c r="M8" s="76"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
@@ -3805,11 +3808,11 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
@@ -3889,7 +3892,7 @@
       <c r="A13" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="28">
@@ -3913,8 +3916,8 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
@@ -3997,7 +4000,7 @@
       <c r="A14" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="28">
@@ -4021,8 +4024,8 @@
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
       <c r="P14" s="31"/>
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
@@ -4105,7 +4108,7 @@
       <c r="A15" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="28">
@@ -4129,11 +4132,11 @@
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
       <c r="S15" s="31"/>
       <c r="T15" s="31"/>
       <c r="U15" s="31"/>
@@ -4213,7 +4216,7 @@
       <c r="A16" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="28">
@@ -4239,9 +4242,9 @@
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
       <c r="S16" s="31"/>
       <c r="T16" s="31"/>
       <c r="U16" s="31"/>
@@ -4321,7 +4324,7 @@
       <c r="A17" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="28">
@@ -4347,9 +4350,9 @@
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
       <c r="U17" s="31"/>
@@ -4429,7 +4432,7 @@
       <c r="A18" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="28">
@@ -4455,9 +4458,9 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
       <c r="S18" s="31"/>
       <c r="T18" s="31"/>
       <c r="U18" s="31"/>
@@ -4537,11 +4540,11 @@
       <c r="A19" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="28"/>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="78" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="29"/>
@@ -4637,11 +4640,11 @@
       <c r="A20" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="28"/>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="78" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="29"/>
@@ -4737,11 +4740,11 @@
       <c r="A21" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="28"/>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="78" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="29"/>
@@ -4866,11 +4869,11 @@
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="76"/>
       <c r="X22" s="38"/>
       <c r="Y22" s="38"/>
       <c r="Z22" s="38"/>
@@ -4974,9 +4977,9 @@
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
       <c r="R23" s="44"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
       <c r="V23" s="44"/>
       <c r="W23" s="44"/>
       <c r="X23" s="44"/>
@@ -5083,8 +5086,8 @@
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
       <c r="S24" s="44"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
       <c r="V24" s="44"/>
       <c r="W24" s="44"/>
       <c r="X24" s="44"/>
@@ -5192,8 +5195,8 @@
       <c r="R25" s="44"/>
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
       <c r="W25" s="44"/>
       <c r="X25" s="44"/>
       <c r="Y25" s="44"/>
@@ -5300,9 +5303,9 @@
       <c r="R26" s="44"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
       <c r="X26" s="44"/>
       <c r="Y26" s="44"/>
       <c r="Z26" s="44"/>
@@ -5409,8 +5412,8 @@
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
       <c r="U27" s="44"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
       <c r="X27" s="44"/>
       <c r="Y27" s="44"/>
       <c r="Z27" s="44"/>
@@ -5489,7 +5492,7 @@
         <v>39</v>
       </c>
       <c r="C28" s="41"/>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="79" t="s">
         <v>64</v>
       </c>
       <c r="E28" s="42"/>
@@ -5589,7 +5592,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="41"/>
-      <c r="D29" s="91" t="s">
+      <c r="D29" s="79" t="s">
         <v>64</v>
       </c>
       <c r="E29" s="42"/>
@@ -5689,7 +5692,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="41"/>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="79" t="s">
         <v>64</v>
       </c>
       <c r="E30" s="42"/>
@@ -5789,7 +5792,7 @@
         <v>39</v>
       </c>
       <c r="C31" s="41"/>
-      <c r="D31" s="91" t="s">
+      <c r="D31" s="79" t="s">
         <v>64</v>
       </c>
       <c r="E31" s="42"/>
@@ -5887,7 +5890,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="41"/>
-      <c r="D32" s="91"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -5994,7 +5997,9 @@
       <c r="F33" s="49">
         <v>45782</v>
       </c>
-      <c r="G33" s="49"/>
+      <c r="G33" s="49">
+        <v>45790</v>
+      </c>
       <c r="H33" s="50"/>
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
@@ -6010,13 +6015,13 @@
       <c r="T33" s="51"/>
       <c r="U33" s="51"/>
       <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="76"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="132"/>
       <c r="AD33" s="51"/>
       <c r="AE33" s="51"/>
       <c r="AF33" s="51"/>
@@ -6100,7 +6105,9 @@
       <c r="F34" s="55">
         <v>45784</v>
       </c>
-      <c r="G34" s="55"/>
+      <c r="G34" s="55">
+        <v>45789</v>
+      </c>
       <c r="H34" s="56"/>
       <c r="I34" s="57"/>
       <c r="J34" s="57"/>
@@ -6118,10 +6125,10 @@
       <c r="V34" s="57"/>
       <c r="W34" s="57"/>
       <c r="X34" s="57"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="88"/>
-      <c r="AB34" s="88"/>
+      <c r="Y34" s="76"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="76"/>
+      <c r="AB34" s="76"/>
       <c r="AC34" s="57"/>
       <c r="AD34" s="57"/>
       <c r="AE34" s="57"/>
@@ -6224,8 +6231,8 @@
       <c r="T35" s="57"/>
       <c r="U35" s="57"/>
       <c r="V35" s="57"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="88"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="76"/>
       <c r="Y35" s="57"/>
       <c r="Z35" s="57"/>
       <c r="AA35" s="57"/>
@@ -6314,7 +6321,9 @@
       <c r="F36" s="55">
         <v>45784</v>
       </c>
-      <c r="G36" s="55"/>
+      <c r="G36" s="55">
+        <v>45790</v>
+      </c>
       <c r="H36" s="56"/>
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
@@ -6332,11 +6341,11 @@
       <c r="V36" s="57"/>
       <c r="W36" s="57"/>
       <c r="X36" s="57"/>
-      <c r="Y36" s="88"/>
-      <c r="Z36" s="88"/>
-      <c r="AA36" s="88"/>
-      <c r="AB36" s="88"/>
-      <c r="AC36" s="57"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
       <c r="AD36" s="57"/>
       <c r="AE36" s="57"/>
       <c r="AF36" s="57"/>
@@ -6420,7 +6429,9 @@
       <c r="F37" s="55">
         <v>45784</v>
       </c>
-      <c r="G37" s="55"/>
+      <c r="G37" s="55">
+        <v>45789</v>
+      </c>
       <c r="H37" s="56"/>
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
@@ -6438,10 +6449,10 @@
       <c r="V37" s="57"/>
       <c r="W37" s="57"/>
       <c r="X37" s="57"/>
-      <c r="Y37" s="88"/>
-      <c r="Z37" s="88"/>
-      <c r="AA37" s="88"/>
-      <c r="AB37" s="88"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="76"/>
+      <c r="AB37" s="76"/>
       <c r="AC37" s="57"/>
       <c r="AD37" s="57"/>
       <c r="AE37" s="57"/>
@@ -6515,7 +6526,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="54"/>
-      <c r="D38" s="116" t="s">
+      <c r="D38" s="104" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="55"/>
@@ -6615,7 +6626,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="54"/>
-      <c r="D39" s="116" t="s">
+      <c r="D39" s="104" t="s">
         <v>82</v>
       </c>
       <c r="E39" s="55"/>
@@ -6708,832 +6719,822 @@
       <c r="CN39" s="58"/>
     </row>
     <row r="40" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="93">
+      <c r="C40" s="80"/>
+      <c r="D40" s="81">
         <v>45790</v>
       </c>
-      <c r="E40" s="93">
+      <c r="E40" s="81">
         <v>45796</v>
       </c>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="95"/>
-      <c r="Z40" s="95"/>
-      <c r="AA40" s="95"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="95"/>
-      <c r="AD40" s="95"/>
-      <c r="AE40" s="95"/>
-      <c r="AF40" s="95"/>
-      <c r="AG40" s="95"/>
-      <c r="AH40" s="95"/>
-      <c r="AI40" s="95"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="95"/>
-      <c r="AO40" s="95"/>
-      <c r="AP40" s="95"/>
-      <c r="AQ40" s="95"/>
-      <c r="AR40" s="95"/>
-      <c r="AS40" s="95"/>
-      <c r="AT40" s="95"/>
-      <c r="AU40" s="95"/>
-      <c r="AV40" s="95"/>
-      <c r="AW40" s="95"/>
-      <c r="AX40" s="95"/>
-      <c r="AY40" s="95"/>
-      <c r="AZ40" s="95"/>
-      <c r="BA40" s="95"/>
-      <c r="BB40" s="95"/>
-      <c r="BC40" s="95"/>
-      <c r="BD40" s="95"/>
-      <c r="BE40" s="95"/>
-      <c r="BF40" s="95"/>
-      <c r="BG40" s="95"/>
-      <c r="BH40" s="95"/>
-      <c r="BI40" s="95"/>
-      <c r="BJ40" s="95"/>
-      <c r="BK40" s="95"/>
-      <c r="BL40" s="95"/>
-      <c r="BM40" s="95"/>
-      <c r="BN40" s="95"/>
-      <c r="BO40" s="95"/>
-      <c r="BP40" s="95"/>
-      <c r="BQ40" s="95"/>
-      <c r="BR40" s="95"/>
-      <c r="BS40" s="95"/>
-      <c r="BT40" s="95"/>
-      <c r="BU40" s="95"/>
-      <c r="BV40" s="95"/>
-      <c r="BW40" s="95"/>
-      <c r="BX40" s="95"/>
-      <c r="BY40" s="95"/>
-      <c r="BZ40" s="95"/>
-      <c r="CA40" s="95"/>
-      <c r="CB40" s="95"/>
-      <c r="CC40" s="95"/>
-      <c r="CD40" s="95"/>
-      <c r="CE40" s="95"/>
-      <c r="CF40" s="95"/>
-      <c r="CG40" s="95"/>
-      <c r="CH40" s="95"/>
-      <c r="CI40" s="95"/>
-      <c r="CJ40" s="95"/>
-      <c r="CK40" s="95"/>
-      <c r="CL40" s="95"/>
-      <c r="CM40" s="95"/>
-      <c r="CN40" s="96"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="83"/>
+      <c r="T40" s="83"/>
+      <c r="U40" s="83"/>
+      <c r="V40" s="83"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="83"/>
+      <c r="Y40" s="83"/>
+      <c r="Z40" s="83"/>
+      <c r="AA40" s="83"/>
+      <c r="AB40" s="83"/>
+      <c r="AC40" s="83"/>
+      <c r="AD40" s="83"/>
+      <c r="AE40" s="83"/>
+      <c r="AF40" s="83"/>
+      <c r="AG40" s="83"/>
+      <c r="AH40" s="83"/>
+      <c r="AI40" s="83"/>
+      <c r="AJ40" s="83"/>
+      <c r="AK40" s="83"/>
+      <c r="AL40" s="83"/>
+      <c r="AM40" s="83"/>
+      <c r="AN40" s="83"/>
+      <c r="AO40" s="83"/>
+      <c r="AP40" s="83"/>
+      <c r="AQ40" s="83"/>
+      <c r="AR40" s="83"/>
+      <c r="AS40" s="83"/>
+      <c r="AT40" s="83"/>
+      <c r="AU40" s="83"/>
+      <c r="AV40" s="83"/>
+      <c r="AW40" s="83"/>
+      <c r="AX40" s="83"/>
+      <c r="AY40" s="83"/>
+      <c r="AZ40" s="83"/>
+      <c r="BA40" s="83"/>
+      <c r="BB40" s="83"/>
+      <c r="BC40" s="83"/>
+      <c r="BD40" s="83"/>
+      <c r="BE40" s="83"/>
+      <c r="BF40" s="83"/>
+      <c r="BG40" s="83"/>
+      <c r="BH40" s="83"/>
+      <c r="BI40" s="83"/>
+      <c r="BJ40" s="83"/>
+      <c r="BK40" s="83"/>
+      <c r="BL40" s="83"/>
+      <c r="BM40" s="83"/>
+      <c r="BN40" s="83"/>
+      <c r="BO40" s="83"/>
+      <c r="BP40" s="83"/>
+      <c r="BQ40" s="83"/>
+      <c r="BR40" s="83"/>
+      <c r="BS40" s="83"/>
+      <c r="BT40" s="83"/>
+      <c r="BU40" s="83"/>
+      <c r="BV40" s="83"/>
+      <c r="BW40" s="83"/>
+      <c r="BX40" s="83"/>
+      <c r="BY40" s="83"/>
+      <c r="BZ40" s="83"/>
+      <c r="CA40" s="83"/>
+      <c r="CB40" s="83"/>
+      <c r="CC40" s="83"/>
+      <c r="CD40" s="83"/>
+      <c r="CE40" s="83"/>
+      <c r="CF40" s="83"/>
+      <c r="CG40" s="83"/>
+      <c r="CH40" s="83"/>
+      <c r="CI40" s="83"/>
+      <c r="CJ40" s="83"/>
+      <c r="CK40" s="83"/>
+      <c r="CL40" s="83"/>
+      <c r="CM40" s="83"/>
+      <c r="CN40" s="84"/>
     </row>
     <row r="41" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="99">
+      <c r="C41" s="86"/>
+      <c r="D41" s="87">
         <v>45790</v>
       </c>
-      <c r="E41" s="99">
+      <c r="E41" s="87">
         <v>45796</v>
       </c>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="101"/>
-      <c r="T41" s="101"/>
-      <c r="U41" s="101"/>
-      <c r="V41" s="101"/>
-      <c r="W41" s="101"/>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="101"/>
-      <c r="Z41" s="101"/>
-      <c r="AA41" s="101"/>
-      <c r="AB41" s="101"/>
-      <c r="AC41" s="101"/>
-      <c r="AD41" s="101"/>
-      <c r="AE41" s="101"/>
-      <c r="AF41" s="101"/>
-      <c r="AG41" s="101"/>
-      <c r="AH41" s="101"/>
-      <c r="AI41" s="101"/>
-      <c r="AJ41" s="101"/>
-      <c r="AK41" s="101"/>
-      <c r="AL41" s="101"/>
-      <c r="AM41" s="101"/>
-      <c r="AN41" s="101"/>
-      <c r="AO41" s="101"/>
-      <c r="AP41" s="101"/>
-      <c r="AQ41" s="101"/>
-      <c r="AR41" s="101"/>
-      <c r="AS41" s="101"/>
-      <c r="AT41" s="101"/>
-      <c r="AU41" s="101"/>
-      <c r="AV41" s="101"/>
-      <c r="AW41" s="101"/>
-      <c r="AX41" s="101"/>
-      <c r="AY41" s="101"/>
-      <c r="AZ41" s="101"/>
-      <c r="BA41" s="101"/>
-      <c r="BB41" s="101"/>
-      <c r="BC41" s="101"/>
-      <c r="BD41" s="101"/>
-      <c r="BE41" s="101"/>
-      <c r="BF41" s="101"/>
-      <c r="BG41" s="101"/>
-      <c r="BH41" s="101"/>
-      <c r="BI41" s="101"/>
-      <c r="BJ41" s="101"/>
-      <c r="BK41" s="101"/>
-      <c r="BL41" s="101"/>
-      <c r="BM41" s="101"/>
-      <c r="BN41" s="101"/>
-      <c r="BO41" s="101"/>
-      <c r="BP41" s="101"/>
-      <c r="BQ41" s="101"/>
-      <c r="BR41" s="101"/>
-      <c r="BS41" s="101"/>
-      <c r="BT41" s="101"/>
-      <c r="BU41" s="101"/>
-      <c r="BV41" s="101"/>
-      <c r="BW41" s="101"/>
-      <c r="BX41" s="101"/>
-      <c r="BY41" s="101"/>
-      <c r="BZ41" s="101"/>
-      <c r="CA41" s="101"/>
-      <c r="CB41" s="101"/>
-      <c r="CC41" s="101"/>
-      <c r="CD41" s="101"/>
-      <c r="CE41" s="101"/>
-      <c r="CF41" s="101"/>
-      <c r="CG41" s="101"/>
-      <c r="CH41" s="101"/>
-      <c r="CI41" s="101"/>
-      <c r="CJ41" s="101"/>
-      <c r="CK41" s="101"/>
-      <c r="CL41" s="101"/>
-      <c r="CM41" s="101"/>
-      <c r="CN41" s="102"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
+      <c r="V41" s="89"/>
+      <c r="W41" s="89"/>
+      <c r="X41" s="89"/>
+      <c r="Y41" s="89"/>
+      <c r="Z41" s="89"/>
+      <c r="AA41" s="89"/>
+      <c r="AB41" s="89"/>
+      <c r="AC41" s="89"/>
+      <c r="AD41" s="89"/>
+      <c r="AE41" s="89"/>
+      <c r="AF41" s="89"/>
+      <c r="AG41" s="89"/>
+      <c r="AH41" s="89"/>
+      <c r="AI41" s="89"/>
+      <c r="AJ41" s="89"/>
+      <c r="AK41" s="89"/>
+      <c r="AL41" s="89"/>
+      <c r="AM41" s="89"/>
+      <c r="AN41" s="89"/>
+      <c r="AO41" s="89"/>
+      <c r="AP41" s="89"/>
+      <c r="AQ41" s="89"/>
+      <c r="AR41" s="89"/>
+      <c r="AS41" s="89"/>
+      <c r="AT41" s="89"/>
+      <c r="AU41" s="89"/>
+      <c r="AV41" s="89"/>
+      <c r="AW41" s="89"/>
+      <c r="AX41" s="89"/>
+      <c r="AY41" s="89"/>
+      <c r="AZ41" s="89"/>
+      <c r="BA41" s="89"/>
+      <c r="BB41" s="89"/>
+      <c r="BC41" s="89"/>
+      <c r="BD41" s="89"/>
+      <c r="BE41" s="89"/>
+      <c r="BF41" s="89"/>
+      <c r="BG41" s="89"/>
+      <c r="BH41" s="89"/>
+      <c r="BI41" s="89"/>
+      <c r="BJ41" s="89"/>
+      <c r="BK41" s="89"/>
+      <c r="BL41" s="89"/>
+      <c r="BM41" s="89"/>
+      <c r="BN41" s="89"/>
+      <c r="BO41" s="89"/>
+      <c r="BP41" s="89"/>
+      <c r="BQ41" s="89"/>
+      <c r="BR41" s="89"/>
+      <c r="BS41" s="89"/>
+      <c r="BT41" s="89"/>
+      <c r="BU41" s="89"/>
+      <c r="BV41" s="89"/>
+      <c r="BW41" s="89"/>
+      <c r="BX41" s="89"/>
+      <c r="BY41" s="89"/>
+      <c r="BZ41" s="89"/>
+      <c r="CA41" s="89"/>
+      <c r="CB41" s="89"/>
+      <c r="CC41" s="89"/>
+      <c r="CD41" s="89"/>
+      <c r="CE41" s="89"/>
+      <c r="CF41" s="89"/>
+      <c r="CG41" s="89"/>
+      <c r="CH41" s="89"/>
+      <c r="CI41" s="89"/>
+      <c r="CJ41" s="89"/>
+      <c r="CK41" s="89"/>
+      <c r="CL41" s="89"/>
+      <c r="CM41" s="89"/>
+      <c r="CN41" s="90"/>
     </row>
     <row r="42" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="98"/>
-      <c r="D42" s="99">
+      <c r="C42" s="86"/>
+      <c r="D42" s="87">
         <v>45790</v>
       </c>
-      <c r="E42" s="99">
+      <c r="E42" s="87">
         <v>45796</v>
       </c>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="101"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="101"/>
-      <c r="O42" s="101"/>
-      <c r="P42" s="101"/>
-      <c r="Q42" s="101"/>
-      <c r="R42" s="101"/>
-      <c r="S42" s="101"/>
-      <c r="T42" s="101"/>
-      <c r="U42" s="101"/>
-      <c r="V42" s="101"/>
-      <c r="W42" s="101"/>
-      <c r="X42" s="101"/>
-      <c r="Y42" s="101"/>
-      <c r="Z42" s="101"/>
-      <c r="AA42" s="101"/>
-      <c r="AB42" s="101"/>
-      <c r="AC42" s="101"/>
-      <c r="AD42" s="101"/>
-      <c r="AE42" s="101"/>
-      <c r="AF42" s="101"/>
-      <c r="AG42" s="101"/>
-      <c r="AH42" s="101"/>
-      <c r="AI42" s="101"/>
-      <c r="AJ42" s="101"/>
-      <c r="AK42" s="101"/>
-      <c r="AL42" s="101"/>
-      <c r="AM42" s="101"/>
-      <c r="AN42" s="101"/>
-      <c r="AO42" s="101"/>
-      <c r="AP42" s="101"/>
-      <c r="AQ42" s="101"/>
-      <c r="AR42" s="101"/>
-      <c r="AS42" s="101"/>
-      <c r="AT42" s="101"/>
-      <c r="AU42" s="101"/>
-      <c r="AV42" s="101"/>
-      <c r="AW42" s="101"/>
-      <c r="AX42" s="101"/>
-      <c r="AY42" s="101"/>
-      <c r="AZ42" s="101"/>
-      <c r="BA42" s="101"/>
-      <c r="BB42" s="101"/>
-      <c r="BC42" s="101"/>
-      <c r="BD42" s="101"/>
-      <c r="BE42" s="101"/>
-      <c r="BF42" s="101"/>
-      <c r="BG42" s="101"/>
-      <c r="BH42" s="101"/>
-      <c r="BI42" s="101"/>
-      <c r="BJ42" s="101"/>
-      <c r="BK42" s="101"/>
-      <c r="BL42" s="101"/>
-      <c r="BM42" s="101"/>
-      <c r="BN42" s="101"/>
-      <c r="BO42" s="101"/>
-      <c r="BP42" s="101"/>
-      <c r="BQ42" s="101"/>
-      <c r="BR42" s="101"/>
-      <c r="BS42" s="101"/>
-      <c r="BT42" s="101"/>
-      <c r="BU42" s="101"/>
-      <c r="BV42" s="101"/>
-      <c r="BW42" s="101"/>
-      <c r="BX42" s="101"/>
-      <c r="BY42" s="101"/>
-      <c r="BZ42" s="101"/>
-      <c r="CA42" s="101"/>
-      <c r="CB42" s="101"/>
-      <c r="CC42" s="101"/>
-      <c r="CD42" s="101"/>
-      <c r="CE42" s="101"/>
-      <c r="CF42" s="101"/>
-      <c r="CG42" s="101"/>
-      <c r="CH42" s="101"/>
-      <c r="CI42" s="101"/>
-      <c r="CJ42" s="101"/>
-      <c r="CK42" s="101"/>
-      <c r="CL42" s="101"/>
-      <c r="CM42" s="101"/>
-      <c r="CN42" s="102"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="89"/>
+      <c r="V42" s="89"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="89"/>
+      <c r="Z42" s="89"/>
+      <c r="AA42" s="89"/>
+      <c r="AB42" s="89"/>
+      <c r="AC42" s="89"/>
+      <c r="AD42" s="89"/>
+      <c r="AE42" s="89"/>
+      <c r="AF42" s="89"/>
+      <c r="AG42" s="89"/>
+      <c r="AH42" s="89"/>
+      <c r="AI42" s="89"/>
+      <c r="AJ42" s="89"/>
+      <c r="AK42" s="89"/>
+      <c r="AL42" s="89"/>
+      <c r="AM42" s="89"/>
+      <c r="AN42" s="89"/>
+      <c r="AO42" s="89"/>
+      <c r="AP42" s="89"/>
+      <c r="AQ42" s="89"/>
+      <c r="AR42" s="89"/>
+      <c r="AS42" s="89"/>
+      <c r="AT42" s="89"/>
+      <c r="AU42" s="89"/>
+      <c r="AV42" s="89"/>
+      <c r="AW42" s="89"/>
+      <c r="AX42" s="89"/>
+      <c r="AY42" s="89"/>
+      <c r="AZ42" s="89"/>
+      <c r="BA42" s="89"/>
+      <c r="BB42" s="89"/>
+      <c r="BC42" s="89"/>
+      <c r="BD42" s="89"/>
+      <c r="BE42" s="89"/>
+      <c r="BF42" s="89"/>
+      <c r="BG42" s="89"/>
+      <c r="BH42" s="89"/>
+      <c r="BI42" s="89"/>
+      <c r="BJ42" s="89"/>
+      <c r="BK42" s="89"/>
+      <c r="BL42" s="89"/>
+      <c r="BM42" s="89"/>
+      <c r="BN42" s="89"/>
+      <c r="BO42" s="89"/>
+      <c r="BP42" s="89"/>
+      <c r="BQ42" s="89"/>
+      <c r="BR42" s="89"/>
+      <c r="BS42" s="89"/>
+      <c r="BT42" s="89"/>
+      <c r="BU42" s="89"/>
+      <c r="BV42" s="89"/>
+      <c r="BW42" s="89"/>
+      <c r="BX42" s="89"/>
+      <c r="BY42" s="89"/>
+      <c r="BZ42" s="89"/>
+      <c r="CA42" s="89"/>
+      <c r="CB42" s="89"/>
+      <c r="CC42" s="89"/>
+      <c r="CD42" s="89"/>
+      <c r="CE42" s="89"/>
+      <c r="CF42" s="89"/>
+      <c r="CG42" s="89"/>
+      <c r="CH42" s="89"/>
+      <c r="CI42" s="89"/>
+      <c r="CJ42" s="89"/>
+      <c r="CK42" s="89"/>
+      <c r="CL42" s="89"/>
+      <c r="CM42" s="89"/>
+      <c r="CN42" s="90"/>
     </row>
     <row r="43" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="98"/>
-      <c r="D43" s="117" t="s">
+      <c r="C43" s="86"/>
+      <c r="D43" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="101"/>
-      <c r="Q43" s="101"/>
-      <c r="R43" s="101"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="101"/>
-      <c r="U43" s="101"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="101"/>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="101"/>
-      <c r="AA43" s="101"/>
-      <c r="AB43" s="101"/>
-      <c r="AC43" s="101"/>
-      <c r="AD43" s="101"/>
-      <c r="AE43" s="101"/>
-      <c r="AF43" s="101"/>
-      <c r="AG43" s="101"/>
-      <c r="AH43" s="101"/>
-      <c r="AI43" s="101"/>
-      <c r="AJ43" s="101"/>
-      <c r="AK43" s="101"/>
-      <c r="AL43" s="101"/>
-      <c r="AM43" s="101"/>
-      <c r="AN43" s="101"/>
-      <c r="AO43" s="101"/>
-      <c r="AP43" s="101"/>
-      <c r="AQ43" s="101"/>
-      <c r="AR43" s="101"/>
-      <c r="AS43" s="101"/>
-      <c r="AT43" s="101"/>
-      <c r="AU43" s="101"/>
-      <c r="AV43" s="101"/>
-      <c r="AW43" s="101"/>
-      <c r="AX43" s="101"/>
-      <c r="AY43" s="101"/>
-      <c r="AZ43" s="101"/>
-      <c r="BA43" s="101"/>
-      <c r="BB43" s="101"/>
-      <c r="BC43" s="101"/>
-      <c r="BD43" s="101"/>
-      <c r="BE43" s="101"/>
-      <c r="BF43" s="101"/>
-      <c r="BG43" s="101"/>
-      <c r="BH43" s="101"/>
-      <c r="BI43" s="101"/>
-      <c r="BJ43" s="101"/>
-      <c r="BK43" s="101"/>
-      <c r="BL43" s="101"/>
-      <c r="BM43" s="101"/>
-      <c r="BN43" s="101"/>
-      <c r="BO43" s="101"/>
-      <c r="BP43" s="101"/>
-      <c r="BQ43" s="101"/>
-      <c r="BR43" s="101"/>
-      <c r="BS43" s="101"/>
-      <c r="BT43" s="101"/>
-      <c r="BU43" s="101"/>
-      <c r="BV43" s="101"/>
-      <c r="BW43" s="101"/>
-      <c r="BX43" s="101"/>
-      <c r="BY43" s="101"/>
-      <c r="BZ43" s="101"/>
-      <c r="CA43" s="101"/>
-      <c r="CB43" s="101"/>
-      <c r="CC43" s="101"/>
-      <c r="CD43" s="101"/>
-      <c r="CE43" s="101"/>
-      <c r="CF43" s="101"/>
-      <c r="CG43" s="101"/>
-      <c r="CH43" s="101"/>
-      <c r="CI43" s="101"/>
-      <c r="CJ43" s="101"/>
-      <c r="CK43" s="101"/>
-      <c r="CL43" s="101"/>
-      <c r="CM43" s="101"/>
-      <c r="CN43" s="102"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="89"/>
+      <c r="V43" s="89"/>
+      <c r="W43" s="89"/>
+      <c r="X43" s="89"/>
+      <c r="Y43" s="89"/>
+      <c r="Z43" s="89"/>
+      <c r="AA43" s="89"/>
+      <c r="AB43" s="89"/>
+      <c r="AC43" s="89"/>
+      <c r="AD43" s="89"/>
+      <c r="AE43" s="89"/>
+      <c r="AF43" s="89"/>
+      <c r="AG43" s="89"/>
+      <c r="AH43" s="89"/>
+      <c r="AI43" s="89"/>
+      <c r="AJ43" s="89"/>
+      <c r="AK43" s="89"/>
+      <c r="AL43" s="89"/>
+      <c r="AM43" s="89"/>
+      <c r="AN43" s="89"/>
+      <c r="AO43" s="89"/>
+      <c r="AP43" s="89"/>
+      <c r="AQ43" s="89"/>
+      <c r="AR43" s="89"/>
+      <c r="AS43" s="89"/>
+      <c r="AT43" s="89"/>
+      <c r="AU43" s="89"/>
+      <c r="AV43" s="89"/>
+      <c r="AW43" s="89"/>
+      <c r="AX43" s="89"/>
+      <c r="AY43" s="89"/>
+      <c r="AZ43" s="89"/>
+      <c r="BA43" s="89"/>
+      <c r="BB43" s="89"/>
+      <c r="BC43" s="89"/>
+      <c r="BD43" s="89"/>
+      <c r="BE43" s="89"/>
+      <c r="BF43" s="89"/>
+      <c r="BG43" s="89"/>
+      <c r="BH43" s="89"/>
+      <c r="BI43" s="89"/>
+      <c r="BJ43" s="89"/>
+      <c r="BK43" s="89"/>
+      <c r="BL43" s="89"/>
+      <c r="BM43" s="89"/>
+      <c r="BN43" s="89"/>
+      <c r="BO43" s="89"/>
+      <c r="BP43" s="89"/>
+      <c r="BQ43" s="89"/>
+      <c r="BR43" s="89"/>
+      <c r="BS43" s="89"/>
+      <c r="BT43" s="89"/>
+      <c r="BU43" s="89"/>
+      <c r="BV43" s="89"/>
+      <c r="BW43" s="89"/>
+      <c r="BX43" s="89"/>
+      <c r="BY43" s="89"/>
+      <c r="BZ43" s="89"/>
+      <c r="CA43" s="89"/>
+      <c r="CB43" s="89"/>
+      <c r="CC43" s="89"/>
+      <c r="CD43" s="89"/>
+      <c r="CE43" s="89"/>
+      <c r="CF43" s="89"/>
+      <c r="CG43" s="89"/>
+      <c r="CH43" s="89"/>
+      <c r="CI43" s="89"/>
+      <c r="CJ43" s="89"/>
+      <c r="CK43" s="89"/>
+      <c r="CL43" s="89"/>
+      <c r="CM43" s="89"/>
+      <c r="CN43" s="90"/>
     </row>
-    <row r="44" spans="1:92" s="124" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="118" t="s">
+    <row r="44" spans="1:92" s="112" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="119" t="s">
+      <c r="B44" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="119"/>
-      <c r="D44" s="120">
+      <c r="C44" s="107"/>
+      <c r="D44" s="108">
         <v>45797</v>
       </c>
-      <c r="E44" s="120">
+      <c r="E44" s="108">
         <v>45802</v>
       </c>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="122"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="122"/>
-      <c r="U44" s="122"/>
-      <c r="V44" s="122"/>
-      <c r="W44" s="122"/>
-      <c r="X44" s="122"/>
-      <c r="Y44" s="122"/>
-      <c r="Z44" s="122"/>
-      <c r="AA44" s="122"/>
-      <c r="AB44" s="122"/>
-      <c r="AC44" s="122"/>
-      <c r="AD44" s="122"/>
-      <c r="AE44" s="122"/>
-      <c r="AF44" s="122"/>
-      <c r="AG44" s="122"/>
-      <c r="AH44" s="122"/>
-      <c r="AI44" s="122"/>
-      <c r="AJ44" s="122"/>
-      <c r="AK44" s="122"/>
-      <c r="AL44" s="122"/>
-      <c r="AM44" s="122"/>
-      <c r="AN44" s="122"/>
-      <c r="AO44" s="122"/>
-      <c r="AP44" s="122"/>
-      <c r="AQ44" s="122"/>
-      <c r="AR44" s="122"/>
-      <c r="AS44" s="122"/>
-      <c r="AT44" s="122"/>
-      <c r="AU44" s="122"/>
-      <c r="AV44" s="122"/>
-      <c r="AW44" s="122"/>
-      <c r="AX44" s="122"/>
-      <c r="AY44" s="122"/>
-      <c r="AZ44" s="122"/>
-      <c r="BA44" s="122"/>
-      <c r="BB44" s="122"/>
-      <c r="BC44" s="122"/>
-      <c r="BD44" s="122"/>
-      <c r="BE44" s="122"/>
-      <c r="BF44" s="122"/>
-      <c r="BG44" s="122"/>
-      <c r="BH44" s="122"/>
-      <c r="BI44" s="122"/>
-      <c r="BJ44" s="122"/>
-      <c r="BK44" s="122"/>
-      <c r="BL44" s="122"/>
-      <c r="BM44" s="122"/>
-      <c r="BN44" s="122"/>
-      <c r="BO44" s="122"/>
-      <c r="BP44" s="122"/>
-      <c r="BQ44" s="122"/>
-      <c r="BR44" s="122"/>
-      <c r="BS44" s="122"/>
-      <c r="BT44" s="122"/>
-      <c r="BU44" s="122"/>
-      <c r="BV44" s="122"/>
-      <c r="BW44" s="122"/>
-      <c r="BX44" s="122"/>
-      <c r="BY44" s="122"/>
-      <c r="BZ44" s="122"/>
-      <c r="CA44" s="122"/>
-      <c r="CB44" s="122"/>
-      <c r="CC44" s="122"/>
-      <c r="CD44" s="122"/>
-      <c r="CE44" s="122"/>
-      <c r="CF44" s="122"/>
-      <c r="CG44" s="122"/>
-      <c r="CH44" s="122"/>
-      <c r="CI44" s="122"/>
-      <c r="CJ44" s="122"/>
-      <c r="CK44" s="122"/>
-      <c r="CL44" s="122"/>
-      <c r="CM44" s="122"/>
-      <c r="CN44" s="123"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="110"/>
+      <c r="M44" s="110"/>
+      <c r="N44" s="110"/>
+      <c r="O44" s="110"/>
+      <c r="P44" s="110"/>
+      <c r="Q44" s="110"/>
+      <c r="R44" s="110"/>
+      <c r="S44" s="110"/>
+      <c r="T44" s="110"/>
+      <c r="U44" s="110"/>
+      <c r="V44" s="110"/>
+      <c r="W44" s="110"/>
+      <c r="X44" s="110"/>
+      <c r="Y44" s="110"/>
+      <c r="Z44" s="110"/>
+      <c r="AA44" s="110"/>
+      <c r="AB44" s="110"/>
+      <c r="AC44" s="110"/>
+      <c r="AD44" s="110"/>
+      <c r="AE44" s="110"/>
+      <c r="AF44" s="110"/>
+      <c r="AG44" s="110"/>
+      <c r="AH44" s="110"/>
+      <c r="AI44" s="110"/>
+      <c r="AJ44" s="110"/>
+      <c r="AK44" s="110"/>
+      <c r="AL44" s="110"/>
+      <c r="AM44" s="110"/>
+      <c r="AN44" s="110"/>
+      <c r="AO44" s="110"/>
+      <c r="AP44" s="110"/>
+      <c r="AQ44" s="110"/>
+      <c r="AR44" s="110"/>
+      <c r="AS44" s="110"/>
+      <c r="AT44" s="110"/>
+      <c r="AU44" s="110"/>
+      <c r="AV44" s="110"/>
+      <c r="AW44" s="110"/>
+      <c r="AX44" s="110"/>
+      <c r="AY44" s="110"/>
+      <c r="AZ44" s="110"/>
+      <c r="BA44" s="110"/>
+      <c r="BB44" s="110"/>
+      <c r="BC44" s="110"/>
+      <c r="BD44" s="110"/>
+      <c r="BE44" s="110"/>
+      <c r="BF44" s="110"/>
+      <c r="BG44" s="110"/>
+      <c r="BH44" s="110"/>
+      <c r="BI44" s="110"/>
+      <c r="BJ44" s="110"/>
+      <c r="BK44" s="110"/>
+      <c r="BL44" s="110"/>
+      <c r="BM44" s="110"/>
+      <c r="BN44" s="110"/>
+      <c r="BO44" s="110"/>
+      <c r="BP44" s="110"/>
+      <c r="BQ44" s="110"/>
+      <c r="BR44" s="110"/>
+      <c r="BS44" s="110"/>
+      <c r="BT44" s="110"/>
+      <c r="BU44" s="110"/>
+      <c r="BV44" s="110"/>
+      <c r="BW44" s="110"/>
+      <c r="BX44" s="110"/>
+      <c r="BY44" s="110"/>
+      <c r="BZ44" s="110"/>
+      <c r="CA44" s="110"/>
+      <c r="CB44" s="110"/>
+      <c r="CC44" s="110"/>
+      <c r="CD44" s="110"/>
+      <c r="CE44" s="110"/>
+      <c r="CF44" s="110"/>
+      <c r="CG44" s="110"/>
+      <c r="CH44" s="110"/>
+      <c r="CI44" s="110"/>
+      <c r="CJ44" s="110"/>
+      <c r="CK44" s="110"/>
+      <c r="CL44" s="110"/>
+      <c r="CM44" s="110"/>
+      <c r="CN44" s="111"/>
     </row>
-    <row r="45" spans="1:92" s="131" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="125" t="s">
+    <row r="45" spans="1:92" s="119" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="126" t="s">
+      <c r="B45" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="126"/>
-      <c r="D45" s="127">
+      <c r="C45" s="114"/>
+      <c r="D45" s="115">
         <v>45797</v>
       </c>
-      <c r="E45" s="127">
+      <c r="E45" s="115">
         <v>45802</v>
       </c>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="129"/>
-      <c r="O45" s="129"/>
-      <c r="P45" s="129"/>
-      <c r="Q45" s="129"/>
-      <c r="R45" s="129"/>
-      <c r="S45" s="129"/>
-      <c r="T45" s="129"/>
-      <c r="U45" s="129"/>
-      <c r="V45" s="129"/>
-      <c r="W45" s="129"/>
-      <c r="X45" s="129"/>
-      <c r="Y45" s="129"/>
-      <c r="Z45" s="129"/>
-      <c r="AA45" s="129"/>
-      <c r="AB45" s="129"/>
-      <c r="AC45" s="129"/>
-      <c r="AD45" s="129"/>
-      <c r="AE45" s="129"/>
-      <c r="AF45" s="129"/>
-      <c r="AG45" s="129"/>
-      <c r="AH45" s="129"/>
-      <c r="AI45" s="129"/>
-      <c r="AJ45" s="129"/>
-      <c r="AK45" s="129"/>
-      <c r="AL45" s="129"/>
-      <c r="AM45" s="129"/>
-      <c r="AN45" s="129"/>
-      <c r="AO45" s="129"/>
-      <c r="AP45" s="129"/>
-      <c r="AQ45" s="129"/>
-      <c r="AR45" s="129"/>
-      <c r="AS45" s="129"/>
-      <c r="AT45" s="129"/>
-      <c r="AU45" s="129"/>
-      <c r="AV45" s="129"/>
-      <c r="AW45" s="129"/>
-      <c r="AX45" s="129"/>
-      <c r="AY45" s="129"/>
-      <c r="AZ45" s="129"/>
-      <c r="BA45" s="129"/>
-      <c r="BB45" s="129"/>
-      <c r="BC45" s="129"/>
-      <c r="BD45" s="129"/>
-      <c r="BE45" s="129"/>
-      <c r="BF45" s="129"/>
-      <c r="BG45" s="129"/>
-      <c r="BH45" s="129"/>
-      <c r="BI45" s="129"/>
-      <c r="BJ45" s="129"/>
-      <c r="BK45" s="129"/>
-      <c r="BL45" s="129"/>
-      <c r="BM45" s="129"/>
-      <c r="BN45" s="129"/>
-      <c r="BO45" s="129"/>
-      <c r="BP45" s="129"/>
-      <c r="BQ45" s="129"/>
-      <c r="BR45" s="129"/>
-      <c r="BS45" s="129"/>
-      <c r="BT45" s="129"/>
-      <c r="BU45" s="129"/>
-      <c r="BV45" s="129"/>
-      <c r="BW45" s="129"/>
-      <c r="BX45" s="129"/>
-      <c r="BY45" s="129"/>
-      <c r="BZ45" s="129"/>
-      <c r="CA45" s="129"/>
-      <c r="CB45" s="129"/>
-      <c r="CC45" s="129"/>
-      <c r="CD45" s="129"/>
-      <c r="CE45" s="129"/>
-      <c r="CF45" s="129"/>
-      <c r="CG45" s="129"/>
-      <c r="CH45" s="129"/>
-      <c r="CI45" s="129"/>
-      <c r="CJ45" s="129"/>
-      <c r="CK45" s="129"/>
-      <c r="CL45" s="129"/>
-      <c r="CM45" s="129"/>
-      <c r="CN45" s="130"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="117"/>
+      <c r="S45" s="117"/>
+      <c r="T45" s="117"/>
+      <c r="U45" s="117"/>
+      <c r="V45" s="117"/>
+      <c r="W45" s="117"/>
+      <c r="X45" s="117"/>
+      <c r="Y45" s="117"/>
+      <c r="Z45" s="117"/>
+      <c r="AA45" s="117"/>
+      <c r="AB45" s="117"/>
+      <c r="AC45" s="117"/>
+      <c r="AD45" s="117"/>
+      <c r="AE45" s="117"/>
+      <c r="AF45" s="117"/>
+      <c r="AG45" s="117"/>
+      <c r="AH45" s="117"/>
+      <c r="AI45" s="117"/>
+      <c r="AJ45" s="117"/>
+      <c r="AK45" s="117"/>
+      <c r="AL45" s="117"/>
+      <c r="AM45" s="117"/>
+      <c r="AN45" s="117"/>
+      <c r="AO45" s="117"/>
+      <c r="AP45" s="117"/>
+      <c r="AQ45" s="117"/>
+      <c r="AR45" s="117"/>
+      <c r="AS45" s="117"/>
+      <c r="AT45" s="117"/>
+      <c r="AU45" s="117"/>
+      <c r="AV45" s="117"/>
+      <c r="AW45" s="117"/>
+      <c r="AX45" s="117"/>
+      <c r="AY45" s="117"/>
+      <c r="AZ45" s="117"/>
+      <c r="BA45" s="117"/>
+      <c r="BB45" s="117"/>
+      <c r="BC45" s="117"/>
+      <c r="BD45" s="117"/>
+      <c r="BE45" s="117"/>
+      <c r="BF45" s="117"/>
+      <c r="BG45" s="117"/>
+      <c r="BH45" s="117"/>
+      <c r="BI45" s="117"/>
+      <c r="BJ45" s="117"/>
+      <c r="BK45" s="117"/>
+      <c r="BL45" s="117"/>
+      <c r="BM45" s="117"/>
+      <c r="BN45" s="117"/>
+      <c r="BO45" s="117"/>
+      <c r="BP45" s="117"/>
+      <c r="BQ45" s="117"/>
+      <c r="BR45" s="117"/>
+      <c r="BS45" s="117"/>
+      <c r="BT45" s="117"/>
+      <c r="BU45" s="117"/>
+      <c r="BV45" s="117"/>
+      <c r="BW45" s="117"/>
+      <c r="BX45" s="117"/>
+      <c r="BY45" s="117"/>
+      <c r="BZ45" s="117"/>
+      <c r="CA45" s="117"/>
+      <c r="CB45" s="117"/>
+      <c r="CC45" s="117"/>
+      <c r="CD45" s="117"/>
+      <c r="CE45" s="117"/>
+      <c r="CF45" s="117"/>
+      <c r="CG45" s="117"/>
+      <c r="CH45" s="117"/>
+      <c r="CI45" s="117"/>
+      <c r="CJ45" s="117"/>
+      <c r="CK45" s="117"/>
+      <c r="CL45" s="117"/>
+      <c r="CM45" s="117"/>
+      <c r="CN45" s="118"/>
     </row>
     <row r="46" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="106">
+      <c r="C46" s="93"/>
+      <c r="D46" s="94">
         <v>45803</v>
       </c>
-      <c r="E46" s="106">
+      <c r="E46" s="94">
         <v>45808</v>
       </c>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="108"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="108"/>
-      <c r="V46" s="108"/>
-      <c r="W46" s="108"/>
-      <c r="X46" s="108"/>
-      <c r="Y46" s="108"/>
-      <c r="Z46" s="108"/>
-      <c r="AA46" s="108"/>
-      <c r="AB46" s="108"/>
-      <c r="AC46" s="108"/>
-      <c r="AD46" s="108"/>
-      <c r="AE46" s="108"/>
-      <c r="AF46" s="108"/>
-      <c r="AG46" s="108"/>
-      <c r="AH46" s="108"/>
-      <c r="AI46" s="108"/>
-      <c r="AJ46" s="108"/>
-      <c r="AK46" s="108"/>
-      <c r="AL46" s="108"/>
-      <c r="AM46" s="108"/>
-      <c r="AN46" s="108"/>
-      <c r="AO46" s="108"/>
-      <c r="AP46" s="108"/>
-      <c r="AQ46" s="108"/>
-      <c r="AR46" s="108"/>
-      <c r="AS46" s="108"/>
-      <c r="AT46" s="108"/>
-      <c r="AU46" s="108"/>
-      <c r="AV46" s="108"/>
-      <c r="AW46" s="108"/>
-      <c r="AX46" s="108"/>
-      <c r="AY46" s="108"/>
-      <c r="AZ46" s="108"/>
-      <c r="BA46" s="108"/>
-      <c r="BB46" s="108"/>
-      <c r="BC46" s="108"/>
-      <c r="BD46" s="108"/>
-      <c r="BE46" s="108"/>
-      <c r="BF46" s="108"/>
-      <c r="BG46" s="108"/>
-      <c r="BH46" s="108"/>
-      <c r="BI46" s="108"/>
-      <c r="BJ46" s="108"/>
-      <c r="BK46" s="108"/>
-      <c r="BL46" s="108"/>
-      <c r="BM46" s="108"/>
-      <c r="BN46" s="108"/>
-      <c r="BO46" s="108"/>
-      <c r="BP46" s="108"/>
-      <c r="BQ46" s="108"/>
-      <c r="BR46" s="108"/>
-      <c r="BS46" s="108"/>
-      <c r="BT46" s="108"/>
-      <c r="BU46" s="108"/>
-      <c r="BV46" s="108"/>
-      <c r="BW46" s="108"/>
-      <c r="BX46" s="108"/>
-      <c r="BY46" s="108"/>
-      <c r="BZ46" s="108"/>
-      <c r="CA46" s="108"/>
-      <c r="CB46" s="108"/>
-      <c r="CC46" s="108"/>
-      <c r="CD46" s="108"/>
-      <c r="CE46" s="108"/>
-      <c r="CF46" s="108"/>
-      <c r="CG46" s="108"/>
-      <c r="CH46" s="108"/>
-      <c r="CI46" s="108"/>
-      <c r="CJ46" s="108"/>
-      <c r="CK46" s="108"/>
-      <c r="CL46" s="108"/>
-      <c r="CM46" s="108"/>
-      <c r="CN46" s="109"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="96"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="96"/>
+      <c r="W46" s="96"/>
+      <c r="X46" s="96"/>
+      <c r="Y46" s="96"/>
+      <c r="Z46" s="96"/>
+      <c r="AA46" s="96"/>
+      <c r="AB46" s="96"/>
+      <c r="AC46" s="96"/>
+      <c r="AD46" s="96"/>
+      <c r="AE46" s="96"/>
+      <c r="AF46" s="96"/>
+      <c r="AG46" s="96"/>
+      <c r="AH46" s="96"/>
+      <c r="AI46" s="96"/>
+      <c r="AJ46" s="96"/>
+      <c r="AK46" s="96"/>
+      <c r="AL46" s="96"/>
+      <c r="AM46" s="96"/>
+      <c r="AN46" s="96"/>
+      <c r="AO46" s="96"/>
+      <c r="AP46" s="96"/>
+      <c r="AQ46" s="96"/>
+      <c r="AR46" s="96"/>
+      <c r="AS46" s="96"/>
+      <c r="AT46" s="96"/>
+      <c r="AU46" s="96"/>
+      <c r="AV46" s="96"/>
+      <c r="AW46" s="96"/>
+      <c r="AX46" s="96"/>
+      <c r="AY46" s="96"/>
+      <c r="AZ46" s="96"/>
+      <c r="BA46" s="96"/>
+      <c r="BB46" s="96"/>
+      <c r="BC46" s="96"/>
+      <c r="BD46" s="96"/>
+      <c r="BE46" s="96"/>
+      <c r="BF46" s="96"/>
+      <c r="BG46" s="96"/>
+      <c r="BH46" s="96"/>
+      <c r="BI46" s="96"/>
+      <c r="BJ46" s="96"/>
+      <c r="BK46" s="96"/>
+      <c r="BL46" s="96"/>
+      <c r="BM46" s="96"/>
+      <c r="BN46" s="96"/>
+      <c r="BO46" s="96"/>
+      <c r="BP46" s="96"/>
+      <c r="BQ46" s="96"/>
+      <c r="BR46" s="96"/>
+      <c r="BS46" s="96"/>
+      <c r="BT46" s="96"/>
+      <c r="BU46" s="96"/>
+      <c r="BV46" s="96"/>
+      <c r="BW46" s="96"/>
+      <c r="BX46" s="96"/>
+      <c r="BY46" s="96"/>
+      <c r="BZ46" s="96"/>
+      <c r="CA46" s="96"/>
+      <c r="CB46" s="96"/>
+      <c r="CC46" s="96"/>
+      <c r="CD46" s="96"/>
+      <c r="CE46" s="96"/>
+      <c r="CF46" s="96"/>
+      <c r="CG46" s="96"/>
+      <c r="CH46" s="96"/>
+      <c r="CI46" s="96"/>
+      <c r="CJ46" s="96"/>
+      <c r="CK46" s="96"/>
+      <c r="CL46" s="96"/>
+      <c r="CM46" s="96"/>
+      <c r="CN46" s="97"/>
     </row>
     <row r="47" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="110" t="s">
+      <c r="A47" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="111" t="s">
+      <c r="B47" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="112">
+      <c r="C47" s="99"/>
+      <c r="D47" s="100">
         <v>45803</v>
       </c>
-      <c r="E47" s="112">
+      <c r="E47" s="100">
         <v>45808</v>
       </c>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="114"/>
-      <c r="Q47" s="114"/>
-      <c r="R47" s="114"/>
-      <c r="S47" s="114"/>
-      <c r="T47" s="114"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="114"/>
-      <c r="X47" s="114"/>
-      <c r="Y47" s="114"/>
-      <c r="Z47" s="114"/>
-      <c r="AA47" s="114"/>
-      <c r="AB47" s="114"/>
-      <c r="AC47" s="114"/>
-      <c r="AD47" s="114"/>
-      <c r="AE47" s="114"/>
-      <c r="AF47" s="114"/>
-      <c r="AG47" s="114"/>
-      <c r="AH47" s="114"/>
-      <c r="AI47" s="114"/>
-      <c r="AJ47" s="114"/>
-      <c r="AK47" s="114"/>
-      <c r="AL47" s="114"/>
-      <c r="AM47" s="114"/>
-      <c r="AN47" s="114"/>
-      <c r="AO47" s="114"/>
-      <c r="AP47" s="114"/>
-      <c r="AQ47" s="114"/>
-      <c r="AR47" s="114"/>
-      <c r="AS47" s="114"/>
-      <c r="AT47" s="114"/>
-      <c r="AU47" s="114"/>
-      <c r="AV47" s="114"/>
-      <c r="AW47" s="114"/>
-      <c r="AX47" s="114"/>
-      <c r="AY47" s="114"/>
-      <c r="AZ47" s="114"/>
-      <c r="BA47" s="114"/>
-      <c r="BB47" s="114"/>
-      <c r="BC47" s="114"/>
-      <c r="BD47" s="114"/>
-      <c r="BE47" s="114"/>
-      <c r="BF47" s="114"/>
-      <c r="BG47" s="114"/>
-      <c r="BH47" s="114"/>
-      <c r="BI47" s="114"/>
-      <c r="BJ47" s="114"/>
-      <c r="BK47" s="114"/>
-      <c r="BL47" s="114"/>
-      <c r="BM47" s="114"/>
-      <c r="BN47" s="114"/>
-      <c r="BO47" s="114"/>
-      <c r="BP47" s="114"/>
-      <c r="BQ47" s="114"/>
-      <c r="BR47" s="114"/>
-      <c r="BS47" s="114"/>
-      <c r="BT47" s="114"/>
-      <c r="BU47" s="114"/>
-      <c r="BV47" s="114"/>
-      <c r="BW47" s="114"/>
-      <c r="BX47" s="114"/>
-      <c r="BY47" s="114"/>
-      <c r="BZ47" s="114"/>
-      <c r="CA47" s="114"/>
-      <c r="CB47" s="114"/>
-      <c r="CC47" s="114"/>
-      <c r="CD47" s="114"/>
-      <c r="CE47" s="114"/>
-      <c r="CF47" s="114"/>
-      <c r="CG47" s="114"/>
-      <c r="CH47" s="114"/>
-      <c r="CI47" s="114"/>
-      <c r="CJ47" s="114"/>
-      <c r="CK47" s="114"/>
-      <c r="CL47" s="114"/>
-      <c r="CM47" s="114"/>
-      <c r="CN47" s="115"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="102"/>
+      <c r="O47" s="102"/>
+      <c r="P47" s="102"/>
+      <c r="Q47" s="102"/>
+      <c r="R47" s="102"/>
+      <c r="S47" s="102"/>
+      <c r="T47" s="102"/>
+      <c r="U47" s="102"/>
+      <c r="V47" s="102"/>
+      <c r="W47" s="102"/>
+      <c r="X47" s="102"/>
+      <c r="Y47" s="102"/>
+      <c r="Z47" s="102"/>
+      <c r="AA47" s="102"/>
+      <c r="AB47" s="102"/>
+      <c r="AC47" s="102"/>
+      <c r="AD47" s="102"/>
+      <c r="AE47" s="102"/>
+      <c r="AF47" s="102"/>
+      <c r="AG47" s="102"/>
+      <c r="AH47" s="102"/>
+      <c r="AI47" s="102"/>
+      <c r="AJ47" s="102"/>
+      <c r="AK47" s="102"/>
+      <c r="AL47" s="102"/>
+      <c r="AM47" s="102"/>
+      <c r="AN47" s="102"/>
+      <c r="AO47" s="102"/>
+      <c r="AP47" s="102"/>
+      <c r="AQ47" s="102"/>
+      <c r="AR47" s="102"/>
+      <c r="AS47" s="102"/>
+      <c r="AT47" s="102"/>
+      <c r="AU47" s="102"/>
+      <c r="AV47" s="102"/>
+      <c r="AW47" s="102"/>
+      <c r="AX47" s="102"/>
+      <c r="AY47" s="102"/>
+      <c r="AZ47" s="102"/>
+      <c r="BA47" s="102"/>
+      <c r="BB47" s="102"/>
+      <c r="BC47" s="102"/>
+      <c r="BD47" s="102"/>
+      <c r="BE47" s="102"/>
+      <c r="BF47" s="102"/>
+      <c r="BG47" s="102"/>
+      <c r="BH47" s="102"/>
+      <c r="BI47" s="102"/>
+      <c r="BJ47" s="102"/>
+      <c r="BK47" s="102"/>
+      <c r="BL47" s="102"/>
+      <c r="BM47" s="102"/>
+      <c r="BN47" s="102"/>
+      <c r="BO47" s="102"/>
+      <c r="BP47" s="102"/>
+      <c r="BQ47" s="102"/>
+      <c r="BR47" s="102"/>
+      <c r="BS47" s="102"/>
+      <c r="BT47" s="102"/>
+      <c r="BU47" s="102"/>
+      <c r="BV47" s="102"/>
+      <c r="BW47" s="102"/>
+      <c r="BX47" s="102"/>
+      <c r="BY47" s="102"/>
+      <c r="BZ47" s="102"/>
+      <c r="CA47" s="102"/>
+      <c r="CB47" s="102"/>
+      <c r="CC47" s="102"/>
+      <c r="CD47" s="102"/>
+      <c r="CE47" s="102"/>
+      <c r="CF47" s="102"/>
+      <c r="CG47" s="102"/>
+      <c r="CH47" s="102"/>
+      <c r="CI47" s="102"/>
+      <c r="CJ47" s="102"/>
+      <c r="CK47" s="102"/>
+      <c r="CL47" s="102"/>
+      <c r="CM47" s="102"/>
+      <c r="CN47" s="103"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="26">
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:Q5"/>
     <mergeCell ref="CE5:CI5"/>
     <mergeCell ref="CJ5:CN5"/>
     <mergeCell ref="D6:E6"/>
@@ -7550,9 +7551,19 @@
     <mergeCell ref="AL5:AP5"/>
     <mergeCell ref="AQ5:AU5"/>
     <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
-  <conditionalFormatting sqref="F19:G21 F28:G32 G34 F33 G36:G37 F46:G47 F38:G43">
+  <conditionalFormatting sqref="F19:G21 F28:G32 F33 F46:G47 F38:G43">
     <cfRule type="expression" dxfId="6" priority="8">
       <formula>D19&lt;F19</formula>
     </cfRule>
@@ -7628,208 +7639,208 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="80">
+      <c r="E1" s="121">
         <v>45761</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="1:92" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A6" s="70"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="76">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="120">
         <f>H7</f>
         <v>45761</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76">
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120">
         <f>H6+7</f>
         <v>45768</v>
       </c>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76">
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120">
         <f>M6+7</f>
         <v>45775</v>
       </c>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76">
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120">
         <f>R6+7</f>
         <v>45782</v>
       </c>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76">
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="120">
         <f>W6+7</f>
         <v>45789</v>
       </c>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76">
+      <c r="AC6" s="120"/>
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="120">
         <f>AB6+7</f>
         <v>45796</v>
       </c>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="76">
+      <c r="AH6" s="120"/>
+      <c r="AI6" s="120"/>
+      <c r="AJ6" s="120"/>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="120">
         <f>AG6+7</f>
         <v>45803</v>
       </c>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="76">
+      <c r="AM6" s="120"/>
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="120">
         <f>AL6+7</f>
         <v>45810</v>
       </c>
-      <c r="AR6" s="76"/>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76">
+      <c r="AR6" s="120"/>
+      <c r="AS6" s="120"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="120">
         <f>AQ6+7</f>
         <v>45817</v>
       </c>
-      <c r="AW6" s="76"/>
-      <c r="AX6" s="76"/>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="76">
+      <c r="AW6" s="120"/>
+      <c r="AX6" s="120"/>
+      <c r="AY6" s="120"/>
+      <c r="AZ6" s="120"/>
+      <c r="BA6" s="120">
         <f>AV6+7</f>
         <v>45824</v>
       </c>
-      <c r="BB6" s="76"/>
-      <c r="BC6" s="76"/>
-      <c r="BD6" s="76"/>
-      <c r="BE6" s="76"/>
-      <c r="BF6" s="76">
+      <c r="BB6" s="120"/>
+      <c r="BC6" s="120"/>
+      <c r="BD6" s="120"/>
+      <c r="BE6" s="120"/>
+      <c r="BF6" s="120">
         <f>BA6+7</f>
         <v>45831</v>
       </c>
-      <c r="BG6" s="76"/>
-      <c r="BH6" s="76"/>
-      <c r="BI6" s="76"/>
-      <c r="BJ6" s="76"/>
-      <c r="BK6" s="76">
+      <c r="BG6" s="120"/>
+      <c r="BH6" s="120"/>
+      <c r="BI6" s="120"/>
+      <c r="BJ6" s="120"/>
+      <c r="BK6" s="120">
         <f>BF6+7</f>
         <v>45838</v>
       </c>
-      <c r="BL6" s="76"/>
-      <c r="BM6" s="76"/>
-      <c r="BN6" s="76"/>
-      <c r="BO6" s="76"/>
-      <c r="BP6" s="76">
+      <c r="BL6" s="120"/>
+      <c r="BM6" s="120"/>
+      <c r="BN6" s="120"/>
+      <c r="BO6" s="120"/>
+      <c r="BP6" s="120">
         <f>BK6+7</f>
         <v>45845</v>
       </c>
-      <c r="BQ6" s="76"/>
-      <c r="BR6" s="76"/>
-      <c r="BS6" s="76"/>
-      <c r="BT6" s="76"/>
-      <c r="BU6" s="76">
+      <c r="BQ6" s="120"/>
+      <c r="BR6" s="120"/>
+      <c r="BS6" s="120"/>
+      <c r="BT6" s="120"/>
+      <c r="BU6" s="120">
         <f>BP6+7</f>
         <v>45852</v>
       </c>
-      <c r="BV6" s="76"/>
-      <c r="BW6" s="76"/>
-      <c r="BX6" s="76"/>
-      <c r="BY6" s="76"/>
-      <c r="BZ6" s="76">
+      <c r="BV6" s="120"/>
+      <c r="BW6" s="120"/>
+      <c r="BX6" s="120"/>
+      <c r="BY6" s="120"/>
+      <c r="BZ6" s="120">
         <f>BU6+7</f>
         <v>45859</v>
       </c>
-      <c r="CA6" s="76"/>
-      <c r="CB6" s="76"/>
-      <c r="CC6" s="76"/>
-      <c r="CD6" s="76"/>
-      <c r="CE6" s="76">
+      <c r="CA6" s="120"/>
+      <c r="CB6" s="120"/>
+      <c r="CC6" s="120"/>
+      <c r="CD6" s="120"/>
+      <c r="CE6" s="120">
         <f>BZ6+7</f>
         <v>45866</v>
       </c>
-      <c r="CF6" s="76"/>
-      <c r="CG6" s="76"/>
-      <c r="CH6" s="76"/>
-      <c r="CI6" s="76"/>
-      <c r="CJ6" s="76">
+      <c r="CF6" s="120"/>
+      <c r="CG6" s="120"/>
+      <c r="CH6" s="120"/>
+      <c r="CI6" s="120"/>
+      <c r="CJ6" s="120">
         <f>CE6+7</f>
         <v>45873</v>
       </c>
-      <c r="CK6" s="76"/>
-      <c r="CL6" s="76"/>
-      <c r="CM6" s="76"/>
-      <c r="CN6" s="76"/>
+      <c r="CK6" s="120"/>
+      <c r="CL6" s="120"/>
+      <c r="CM6" s="120"/>
+      <c r="CN6" s="120"/>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="66"/>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79" t="s">
+      <c r="E7" s="128"/>
+      <c r="F7" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="128"/>
       <c r="H7" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -10911,6 +10922,18 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="28">
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
     <mergeCell ref="CE6:CI6"/>
     <mergeCell ref="CJ6:CN6"/>
     <mergeCell ref="D7:E7"/>
@@ -10927,18 +10950,6 @@
     <mergeCell ref="AL6:AP6"/>
     <mergeCell ref="AQ6:AU6"/>
     <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="F15:G32">
@@ -10972,32 +10983,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EAE907A4656B64D94B3660CCE3E3289" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a563f415b679c7758ab15d8ea1597f6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb" xmlns:ns3="7a9b36dc-435e-4e61-bae3-9454d585c231" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7aa85f2b0697fd2429120a6fef2afd30" ns2:_="" ns3:_="">
     <xsd:import namespace="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
@@ -11214,26 +11199,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
-    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F4340E9-CCDE-483A-9E17-F5E0F38BF909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11250,4 +11242,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
+    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ガントチャート_Over Poured.xlsx
+++ b/ガントチャート_Over Poured.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="85">
   <si>
     <t>企画制作　進捗管理表</t>
     <phoneticPr fontId="19"/>
@@ -708,6 +708,10 @@
     <rPh sb="0" eb="2">
       <t>エンシュツ</t>
     </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>オブジェクトをステージにまとめる</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -1878,7 +1882,19 @@
     <xf numFmtId="0" fontId="20" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="183" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1900,23 +1916,11 @@
     <xf numFmtId="182" fontId="1" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2472,11 +2476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN47"/>
+  <dimension ref="A1:CN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="topRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -2533,202 +2537,202 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="121">
+      <c r="E1" s="125">
         <v>45761</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A5" s="70"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="120">
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="121">
         <f>H6</f>
         <v>45761</v>
       </c>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120">
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121">
         <f>H5+7</f>
         <v>45768</v>
       </c>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120">
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121">
         <f>M5+7</f>
         <v>45775</v>
       </c>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120">
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121">
         <f>R5+7</f>
         <v>45782</v>
       </c>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="120">
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121">
         <f>W5+7</f>
         <v>45789</v>
       </c>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="120">
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="121"/>
+      <c r="AG5" s="121">
         <f>AB5+7</f>
         <v>45796</v>
       </c>
-      <c r="AH5" s="120"/>
-      <c r="AI5" s="120"/>
-      <c r="AJ5" s="120"/>
-      <c r="AK5" s="120"/>
-      <c r="AL5" s="120">
+      <c r="AH5" s="121"/>
+      <c r="AI5" s="121"/>
+      <c r="AJ5" s="121"/>
+      <c r="AK5" s="121"/>
+      <c r="AL5" s="121">
         <f>AG5+7</f>
         <v>45803</v>
       </c>
-      <c r="AM5" s="120"/>
-      <c r="AN5" s="120"/>
-      <c r="AO5" s="120"/>
-      <c r="AP5" s="120"/>
-      <c r="AQ5" s="120">
+      <c r="AM5" s="121"/>
+      <c r="AN5" s="121"/>
+      <c r="AO5" s="121"/>
+      <c r="AP5" s="121"/>
+      <c r="AQ5" s="121">
         <f>AL5+7</f>
         <v>45810</v>
       </c>
-      <c r="AR5" s="120"/>
-      <c r="AS5" s="120"/>
-      <c r="AT5" s="120"/>
-      <c r="AU5" s="120"/>
-      <c r="AV5" s="120">
+      <c r="AR5" s="121"/>
+      <c r="AS5" s="121"/>
+      <c r="AT5" s="121"/>
+      <c r="AU5" s="121"/>
+      <c r="AV5" s="121">
         <f>AQ5+7</f>
         <v>45817</v>
       </c>
-      <c r="AW5" s="120"/>
-      <c r="AX5" s="120"/>
-      <c r="AY5" s="120"/>
-      <c r="AZ5" s="120"/>
-      <c r="BA5" s="120">
+      <c r="AW5" s="121"/>
+      <c r="AX5" s="121"/>
+      <c r="AY5" s="121"/>
+      <c r="AZ5" s="121"/>
+      <c r="BA5" s="121">
         <f>AV5+7</f>
         <v>45824</v>
       </c>
-      <c r="BB5" s="120"/>
-      <c r="BC5" s="120"/>
-      <c r="BD5" s="120"/>
-      <c r="BE5" s="120"/>
-      <c r="BF5" s="120">
+      <c r="BB5" s="121"/>
+      <c r="BC5" s="121"/>
+      <c r="BD5" s="121"/>
+      <c r="BE5" s="121"/>
+      <c r="BF5" s="121">
         <f>BA5+7</f>
         <v>45831</v>
       </c>
-      <c r="BG5" s="120"/>
-      <c r="BH5" s="120"/>
-      <c r="BI5" s="120"/>
-      <c r="BJ5" s="120"/>
-      <c r="BK5" s="120">
+      <c r="BG5" s="121"/>
+      <c r="BH5" s="121"/>
+      <c r="BI5" s="121"/>
+      <c r="BJ5" s="121"/>
+      <c r="BK5" s="121">
         <f>BF5+7</f>
         <v>45838</v>
       </c>
-      <c r="BL5" s="120"/>
-      <c r="BM5" s="120"/>
-      <c r="BN5" s="120"/>
-      <c r="BO5" s="120"/>
-      <c r="BP5" s="120">
+      <c r="BL5" s="121"/>
+      <c r="BM5" s="121"/>
+      <c r="BN5" s="121"/>
+      <c r="BO5" s="121"/>
+      <c r="BP5" s="121">
         <f>BK5+7</f>
         <v>45845</v>
       </c>
-      <c r="BQ5" s="120"/>
-      <c r="BR5" s="120"/>
-      <c r="BS5" s="120"/>
-      <c r="BT5" s="120"/>
-      <c r="BU5" s="120">
+      <c r="BQ5" s="121"/>
+      <c r="BR5" s="121"/>
+      <c r="BS5" s="121"/>
+      <c r="BT5" s="121"/>
+      <c r="BU5" s="121">
         <f>BP5+7</f>
         <v>45852</v>
       </c>
-      <c r="BV5" s="120"/>
-      <c r="BW5" s="120"/>
-      <c r="BX5" s="120"/>
-      <c r="BY5" s="120"/>
-      <c r="BZ5" s="120">
+      <c r="BV5" s="121"/>
+      <c r="BW5" s="121"/>
+      <c r="BX5" s="121"/>
+      <c r="BY5" s="121"/>
+      <c r="BZ5" s="121">
         <f>BU5+7</f>
         <v>45859</v>
       </c>
-      <c r="CA5" s="120"/>
-      <c r="CB5" s="120"/>
-      <c r="CC5" s="120"/>
-      <c r="CD5" s="120"/>
-      <c r="CE5" s="120">
+      <c r="CA5" s="121"/>
+      <c r="CB5" s="121"/>
+      <c r="CC5" s="121"/>
+      <c r="CD5" s="121"/>
+      <c r="CE5" s="121">
         <f>BZ5+7</f>
         <v>45866</v>
       </c>
-      <c r="CF5" s="120"/>
-      <c r="CG5" s="120"/>
-      <c r="CH5" s="120"/>
-      <c r="CI5" s="120"/>
-      <c r="CJ5" s="120">
+      <c r="CF5" s="121"/>
+      <c r="CG5" s="121"/>
+      <c r="CH5" s="121"/>
+      <c r="CI5" s="121"/>
+      <c r="CJ5" s="121">
         <f>CE5+7</f>
         <v>45873</v>
       </c>
-      <c r="CK5" s="120"/>
-      <c r="CL5" s="120"/>
-      <c r="CM5" s="120"/>
-      <c r="CN5" s="120"/>
+      <c r="CK5" s="121"/>
+      <c r="CL5" s="121"/>
+      <c r="CM5" s="121"/>
+      <c r="CN5" s="121"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129" t="s">
+      <c r="E6" s="123"/>
+      <c r="F6" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="128"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -6021,7 +6025,7 @@
       <c r="Z33" s="76"/>
       <c r="AA33" s="76"/>
       <c r="AB33" s="76"/>
-      <c r="AC33" s="132"/>
+      <c r="AC33" s="120"/>
       <c r="AD33" s="51"/>
       <c r="AE33" s="51"/>
       <c r="AF33" s="51"/>
@@ -6345,7 +6349,7 @@
       <c r="Z36" s="76"/>
       <c r="AA36" s="76"/>
       <c r="AB36" s="76"/>
-      <c r="AC36" s="76"/>
+      <c r="AC36" s="120"/>
       <c r="AD36" s="57"/>
       <c r="AE36" s="57"/>
       <c r="AF36" s="57"/>
@@ -6924,18 +6928,12 @@
     </row>
     <row r="42" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="86" t="s">
-        <v>39</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B42" s="86"/>
       <c r="C42" s="86"/>
-      <c r="D42" s="87">
-        <v>45790</v>
-      </c>
-      <c r="E42" s="87">
-        <v>45796</v>
-      </c>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
       <c r="F42" s="87"/>
       <c r="G42" s="87"/>
       <c r="H42" s="88"/>
@@ -7026,16 +7024,18 @@
     </row>
     <row r="43" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="86" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="86"/>
-      <c r="D43" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="87"/>
+      <c r="D43" s="87">
+        <v>45790</v>
+      </c>
+      <c r="E43" s="87">
+        <v>45796</v>
+      </c>
       <c r="F43" s="87"/>
       <c r="G43" s="87"/>
       <c r="H43" s="88"/>
@@ -7124,417 +7124,527 @@
       <c r="CM43" s="89"/>
       <c r="CN43" s="90"/>
     </row>
-    <row r="44" spans="1:92" s="112" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="106" t="s">
+    <row r="44" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="86"/>
+      <c r="D44" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="89"/>
+      <c r="Z44" s="89"/>
+      <c r="AA44" s="89"/>
+      <c r="AB44" s="89"/>
+      <c r="AC44" s="89"/>
+      <c r="AD44" s="89"/>
+      <c r="AE44" s="89"/>
+      <c r="AF44" s="89"/>
+      <c r="AG44" s="89"/>
+      <c r="AH44" s="89"/>
+      <c r="AI44" s="89"/>
+      <c r="AJ44" s="89"/>
+      <c r="AK44" s="89"/>
+      <c r="AL44" s="89"/>
+      <c r="AM44" s="89"/>
+      <c r="AN44" s="89"/>
+      <c r="AO44" s="89"/>
+      <c r="AP44" s="89"/>
+      <c r="AQ44" s="89"/>
+      <c r="AR44" s="89"/>
+      <c r="AS44" s="89"/>
+      <c r="AT44" s="89"/>
+      <c r="AU44" s="89"/>
+      <c r="AV44" s="89"/>
+      <c r="AW44" s="89"/>
+      <c r="AX44" s="89"/>
+      <c r="AY44" s="89"/>
+      <c r="AZ44" s="89"/>
+      <c r="BA44" s="89"/>
+      <c r="BB44" s="89"/>
+      <c r="BC44" s="89"/>
+      <c r="BD44" s="89"/>
+      <c r="BE44" s="89"/>
+      <c r="BF44" s="89"/>
+      <c r="BG44" s="89"/>
+      <c r="BH44" s="89"/>
+      <c r="BI44" s="89"/>
+      <c r="BJ44" s="89"/>
+      <c r="BK44" s="89"/>
+      <c r="BL44" s="89"/>
+      <c r="BM44" s="89"/>
+      <c r="BN44" s="89"/>
+      <c r="BO44" s="89"/>
+      <c r="BP44" s="89"/>
+      <c r="BQ44" s="89"/>
+      <c r="BR44" s="89"/>
+      <c r="BS44" s="89"/>
+      <c r="BT44" s="89"/>
+      <c r="BU44" s="89"/>
+      <c r="BV44" s="89"/>
+      <c r="BW44" s="89"/>
+      <c r="BX44" s="89"/>
+      <c r="BY44" s="89"/>
+      <c r="BZ44" s="89"/>
+      <c r="CA44" s="89"/>
+      <c r="CB44" s="89"/>
+      <c r="CC44" s="89"/>
+      <c r="CD44" s="89"/>
+      <c r="CE44" s="89"/>
+      <c r="CF44" s="89"/>
+      <c r="CG44" s="89"/>
+      <c r="CH44" s="89"/>
+      <c r="CI44" s="89"/>
+      <c r="CJ44" s="89"/>
+      <c r="CK44" s="89"/>
+      <c r="CL44" s="89"/>
+      <c r="CM44" s="89"/>
+      <c r="CN44" s="90"/>
+    </row>
+    <row r="45" spans="1:92" s="112" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="107" t="s">
+      <c r="B45" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="108">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108">
         <v>45797</v>
       </c>
-      <c r="E44" s="108">
+      <c r="E45" s="108">
         <v>45802</v>
       </c>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="110"/>
-      <c r="N44" s="110"/>
-      <c r="O44" s="110"/>
-      <c r="P44" s="110"/>
-      <c r="Q44" s="110"/>
-      <c r="R44" s="110"/>
-      <c r="S44" s="110"/>
-      <c r="T44" s="110"/>
-      <c r="U44" s="110"/>
-      <c r="V44" s="110"/>
-      <c r="W44" s="110"/>
-      <c r="X44" s="110"/>
-      <c r="Y44" s="110"/>
-      <c r="Z44" s="110"/>
-      <c r="AA44" s="110"/>
-      <c r="AB44" s="110"/>
-      <c r="AC44" s="110"/>
-      <c r="AD44" s="110"/>
-      <c r="AE44" s="110"/>
-      <c r="AF44" s="110"/>
-      <c r="AG44" s="110"/>
-      <c r="AH44" s="110"/>
-      <c r="AI44" s="110"/>
-      <c r="AJ44" s="110"/>
-      <c r="AK44" s="110"/>
-      <c r="AL44" s="110"/>
-      <c r="AM44" s="110"/>
-      <c r="AN44" s="110"/>
-      <c r="AO44" s="110"/>
-      <c r="AP44" s="110"/>
-      <c r="AQ44" s="110"/>
-      <c r="AR44" s="110"/>
-      <c r="AS44" s="110"/>
-      <c r="AT44" s="110"/>
-      <c r="AU44" s="110"/>
-      <c r="AV44" s="110"/>
-      <c r="AW44" s="110"/>
-      <c r="AX44" s="110"/>
-      <c r="AY44" s="110"/>
-      <c r="AZ44" s="110"/>
-      <c r="BA44" s="110"/>
-      <c r="BB44" s="110"/>
-      <c r="BC44" s="110"/>
-      <c r="BD44" s="110"/>
-      <c r="BE44" s="110"/>
-      <c r="BF44" s="110"/>
-      <c r="BG44" s="110"/>
-      <c r="BH44" s="110"/>
-      <c r="BI44" s="110"/>
-      <c r="BJ44" s="110"/>
-      <c r="BK44" s="110"/>
-      <c r="BL44" s="110"/>
-      <c r="BM44" s="110"/>
-      <c r="BN44" s="110"/>
-      <c r="BO44" s="110"/>
-      <c r="BP44" s="110"/>
-      <c r="BQ44" s="110"/>
-      <c r="BR44" s="110"/>
-      <c r="BS44" s="110"/>
-      <c r="BT44" s="110"/>
-      <c r="BU44" s="110"/>
-      <c r="BV44" s="110"/>
-      <c r="BW44" s="110"/>
-      <c r="BX44" s="110"/>
-      <c r="BY44" s="110"/>
-      <c r="BZ44" s="110"/>
-      <c r="CA44" s="110"/>
-      <c r="CB44" s="110"/>
-      <c r="CC44" s="110"/>
-      <c r="CD44" s="110"/>
-      <c r="CE44" s="110"/>
-      <c r="CF44" s="110"/>
-      <c r="CG44" s="110"/>
-      <c r="CH44" s="110"/>
-      <c r="CI44" s="110"/>
-      <c r="CJ44" s="110"/>
-      <c r="CK44" s="110"/>
-      <c r="CL44" s="110"/>
-      <c r="CM44" s="110"/>
-      <c r="CN44" s="111"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
+      <c r="S45" s="110"/>
+      <c r="T45" s="110"/>
+      <c r="U45" s="110"/>
+      <c r="V45" s="110"/>
+      <c r="W45" s="110"/>
+      <c r="X45" s="110"/>
+      <c r="Y45" s="110"/>
+      <c r="Z45" s="110"/>
+      <c r="AA45" s="110"/>
+      <c r="AB45" s="110"/>
+      <c r="AC45" s="110"/>
+      <c r="AD45" s="110"/>
+      <c r="AE45" s="110"/>
+      <c r="AF45" s="110"/>
+      <c r="AG45" s="110"/>
+      <c r="AH45" s="110"/>
+      <c r="AI45" s="110"/>
+      <c r="AJ45" s="110"/>
+      <c r="AK45" s="110"/>
+      <c r="AL45" s="110"/>
+      <c r="AM45" s="110"/>
+      <c r="AN45" s="110"/>
+      <c r="AO45" s="110"/>
+      <c r="AP45" s="110"/>
+      <c r="AQ45" s="110"/>
+      <c r="AR45" s="110"/>
+      <c r="AS45" s="110"/>
+      <c r="AT45" s="110"/>
+      <c r="AU45" s="110"/>
+      <c r="AV45" s="110"/>
+      <c r="AW45" s="110"/>
+      <c r="AX45" s="110"/>
+      <c r="AY45" s="110"/>
+      <c r="AZ45" s="110"/>
+      <c r="BA45" s="110"/>
+      <c r="BB45" s="110"/>
+      <c r="BC45" s="110"/>
+      <c r="BD45" s="110"/>
+      <c r="BE45" s="110"/>
+      <c r="BF45" s="110"/>
+      <c r="BG45" s="110"/>
+      <c r="BH45" s="110"/>
+      <c r="BI45" s="110"/>
+      <c r="BJ45" s="110"/>
+      <c r="BK45" s="110"/>
+      <c r="BL45" s="110"/>
+      <c r="BM45" s="110"/>
+      <c r="BN45" s="110"/>
+      <c r="BO45" s="110"/>
+      <c r="BP45" s="110"/>
+      <c r="BQ45" s="110"/>
+      <c r="BR45" s="110"/>
+      <c r="BS45" s="110"/>
+      <c r="BT45" s="110"/>
+      <c r="BU45" s="110"/>
+      <c r="BV45" s="110"/>
+      <c r="BW45" s="110"/>
+      <c r="BX45" s="110"/>
+      <c r="BY45" s="110"/>
+      <c r="BZ45" s="110"/>
+      <c r="CA45" s="110"/>
+      <c r="CB45" s="110"/>
+      <c r="CC45" s="110"/>
+      <c r="CD45" s="110"/>
+      <c r="CE45" s="110"/>
+      <c r="CF45" s="110"/>
+      <c r="CG45" s="110"/>
+      <c r="CH45" s="110"/>
+      <c r="CI45" s="110"/>
+      <c r="CJ45" s="110"/>
+      <c r="CK45" s="110"/>
+      <c r="CL45" s="110"/>
+      <c r="CM45" s="110"/>
+      <c r="CN45" s="111"/>
     </row>
-    <row r="45" spans="1:92" s="119" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="113" t="s">
+    <row r="46" spans="1:92" s="119" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="114" t="s">
+      <c r="B46" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="115">
+      <c r="C46" s="114"/>
+      <c r="D46" s="115">
         <v>45797</v>
       </c>
-      <c r="E45" s="115">
+      <c r="E46" s="115">
         <v>45802</v>
       </c>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="117"/>
-      <c r="M45" s="117"/>
-      <c r="N45" s="117"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="117"/>
-      <c r="Q45" s="117"/>
-      <c r="R45" s="117"/>
-      <c r="S45" s="117"/>
-      <c r="T45" s="117"/>
-      <c r="U45" s="117"/>
-      <c r="V45" s="117"/>
-      <c r="W45" s="117"/>
-      <c r="X45" s="117"/>
-      <c r="Y45" s="117"/>
-      <c r="Z45" s="117"/>
-      <c r="AA45" s="117"/>
-      <c r="AB45" s="117"/>
-      <c r="AC45" s="117"/>
-      <c r="AD45" s="117"/>
-      <c r="AE45" s="117"/>
-      <c r="AF45" s="117"/>
-      <c r="AG45" s="117"/>
-      <c r="AH45" s="117"/>
-      <c r="AI45" s="117"/>
-      <c r="AJ45" s="117"/>
-      <c r="AK45" s="117"/>
-      <c r="AL45" s="117"/>
-      <c r="AM45" s="117"/>
-      <c r="AN45" s="117"/>
-      <c r="AO45" s="117"/>
-      <c r="AP45" s="117"/>
-      <c r="AQ45" s="117"/>
-      <c r="AR45" s="117"/>
-      <c r="AS45" s="117"/>
-      <c r="AT45" s="117"/>
-      <c r="AU45" s="117"/>
-      <c r="AV45" s="117"/>
-      <c r="AW45" s="117"/>
-      <c r="AX45" s="117"/>
-      <c r="AY45" s="117"/>
-      <c r="AZ45" s="117"/>
-      <c r="BA45" s="117"/>
-      <c r="BB45" s="117"/>
-      <c r="BC45" s="117"/>
-      <c r="BD45" s="117"/>
-      <c r="BE45" s="117"/>
-      <c r="BF45" s="117"/>
-      <c r="BG45" s="117"/>
-      <c r="BH45" s="117"/>
-      <c r="BI45" s="117"/>
-      <c r="BJ45" s="117"/>
-      <c r="BK45" s="117"/>
-      <c r="BL45" s="117"/>
-      <c r="BM45" s="117"/>
-      <c r="BN45" s="117"/>
-      <c r="BO45" s="117"/>
-      <c r="BP45" s="117"/>
-      <c r="BQ45" s="117"/>
-      <c r="BR45" s="117"/>
-      <c r="BS45" s="117"/>
-      <c r="BT45" s="117"/>
-      <c r="BU45" s="117"/>
-      <c r="BV45" s="117"/>
-      <c r="BW45" s="117"/>
-      <c r="BX45" s="117"/>
-      <c r="BY45" s="117"/>
-      <c r="BZ45" s="117"/>
-      <c r="CA45" s="117"/>
-      <c r="CB45" s="117"/>
-      <c r="CC45" s="117"/>
-      <c r="CD45" s="117"/>
-      <c r="CE45" s="117"/>
-      <c r="CF45" s="117"/>
-      <c r="CG45" s="117"/>
-      <c r="CH45" s="117"/>
-      <c r="CI45" s="117"/>
-      <c r="CJ45" s="117"/>
-      <c r="CK45" s="117"/>
-      <c r="CL45" s="117"/>
-      <c r="CM45" s="117"/>
-      <c r="CN45" s="118"/>
-    </row>
-    <row r="46" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="93"/>
-      <c r="D46" s="94">
-        <v>45803</v>
-      </c>
-      <c r="E46" s="94">
-        <v>45808</v>
-      </c>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="96"/>
-      <c r="V46" s="96"/>
-      <c r="W46" s="96"/>
-      <c r="X46" s="96"/>
-      <c r="Y46" s="96"/>
-      <c r="Z46" s="96"/>
-      <c r="AA46" s="96"/>
-      <c r="AB46" s="96"/>
-      <c r="AC46" s="96"/>
-      <c r="AD46" s="96"/>
-      <c r="AE46" s="96"/>
-      <c r="AF46" s="96"/>
-      <c r="AG46" s="96"/>
-      <c r="AH46" s="96"/>
-      <c r="AI46" s="96"/>
-      <c r="AJ46" s="96"/>
-      <c r="AK46" s="96"/>
-      <c r="AL46" s="96"/>
-      <c r="AM46" s="96"/>
-      <c r="AN46" s="96"/>
-      <c r="AO46" s="96"/>
-      <c r="AP46" s="96"/>
-      <c r="AQ46" s="96"/>
-      <c r="AR46" s="96"/>
-      <c r="AS46" s="96"/>
-      <c r="AT46" s="96"/>
-      <c r="AU46" s="96"/>
-      <c r="AV46" s="96"/>
-      <c r="AW46" s="96"/>
-      <c r="AX46" s="96"/>
-      <c r="AY46" s="96"/>
-      <c r="AZ46" s="96"/>
-      <c r="BA46" s="96"/>
-      <c r="BB46" s="96"/>
-      <c r="BC46" s="96"/>
-      <c r="BD46" s="96"/>
-      <c r="BE46" s="96"/>
-      <c r="BF46" s="96"/>
-      <c r="BG46" s="96"/>
-      <c r="BH46" s="96"/>
-      <c r="BI46" s="96"/>
-      <c r="BJ46" s="96"/>
-      <c r="BK46" s="96"/>
-      <c r="BL46" s="96"/>
-      <c r="BM46" s="96"/>
-      <c r="BN46" s="96"/>
-      <c r="BO46" s="96"/>
-      <c r="BP46" s="96"/>
-      <c r="BQ46" s="96"/>
-      <c r="BR46" s="96"/>
-      <c r="BS46" s="96"/>
-      <c r="BT46" s="96"/>
-      <c r="BU46" s="96"/>
-      <c r="BV46" s="96"/>
-      <c r="BW46" s="96"/>
-      <c r="BX46" s="96"/>
-      <c r="BY46" s="96"/>
-      <c r="BZ46" s="96"/>
-      <c r="CA46" s="96"/>
-      <c r="CB46" s="96"/>
-      <c r="CC46" s="96"/>
-      <c r="CD46" s="96"/>
-      <c r="CE46" s="96"/>
-      <c r="CF46" s="96"/>
-      <c r="CG46" s="96"/>
-      <c r="CH46" s="96"/>
-      <c r="CI46" s="96"/>
-      <c r="CJ46" s="96"/>
-      <c r="CK46" s="96"/>
-      <c r="CL46" s="96"/>
-      <c r="CM46" s="96"/>
-      <c r="CN46" s="97"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="117"/>
+      <c r="N46" s="117"/>
+      <c r="O46" s="117"/>
+      <c r="P46" s="117"/>
+      <c r="Q46" s="117"/>
+      <c r="R46" s="117"/>
+      <c r="S46" s="117"/>
+      <c r="T46" s="117"/>
+      <c r="U46" s="117"/>
+      <c r="V46" s="117"/>
+      <c r="W46" s="117"/>
+      <c r="X46" s="117"/>
+      <c r="Y46" s="117"/>
+      <c r="Z46" s="117"/>
+      <c r="AA46" s="117"/>
+      <c r="AB46" s="117"/>
+      <c r="AC46" s="117"/>
+      <c r="AD46" s="117"/>
+      <c r="AE46" s="117"/>
+      <c r="AF46" s="117"/>
+      <c r="AG46" s="117"/>
+      <c r="AH46" s="117"/>
+      <c r="AI46" s="117"/>
+      <c r="AJ46" s="117"/>
+      <c r="AK46" s="117"/>
+      <c r="AL46" s="117"/>
+      <c r="AM46" s="117"/>
+      <c r="AN46" s="117"/>
+      <c r="AO46" s="117"/>
+      <c r="AP46" s="117"/>
+      <c r="AQ46" s="117"/>
+      <c r="AR46" s="117"/>
+      <c r="AS46" s="117"/>
+      <c r="AT46" s="117"/>
+      <c r="AU46" s="117"/>
+      <c r="AV46" s="117"/>
+      <c r="AW46" s="117"/>
+      <c r="AX46" s="117"/>
+      <c r="AY46" s="117"/>
+      <c r="AZ46" s="117"/>
+      <c r="BA46" s="117"/>
+      <c r="BB46" s="117"/>
+      <c r="BC46" s="117"/>
+      <c r="BD46" s="117"/>
+      <c r="BE46" s="117"/>
+      <c r="BF46" s="117"/>
+      <c r="BG46" s="117"/>
+      <c r="BH46" s="117"/>
+      <c r="BI46" s="117"/>
+      <c r="BJ46" s="117"/>
+      <c r="BK46" s="117"/>
+      <c r="BL46" s="117"/>
+      <c r="BM46" s="117"/>
+      <c r="BN46" s="117"/>
+      <c r="BO46" s="117"/>
+      <c r="BP46" s="117"/>
+      <c r="BQ46" s="117"/>
+      <c r="BR46" s="117"/>
+      <c r="BS46" s="117"/>
+      <c r="BT46" s="117"/>
+      <c r="BU46" s="117"/>
+      <c r="BV46" s="117"/>
+      <c r="BW46" s="117"/>
+      <c r="BX46" s="117"/>
+      <c r="BY46" s="117"/>
+      <c r="BZ46" s="117"/>
+      <c r="CA46" s="117"/>
+      <c r="CB46" s="117"/>
+      <c r="CC46" s="117"/>
+      <c r="CD46" s="117"/>
+      <c r="CE46" s="117"/>
+      <c r="CF46" s="117"/>
+      <c r="CG46" s="117"/>
+      <c r="CH46" s="117"/>
+      <c r="CI46" s="117"/>
+      <c r="CJ46" s="117"/>
+      <c r="CK46" s="117"/>
+      <c r="CL46" s="117"/>
+      <c r="CM46" s="117"/>
+      <c r="CN46" s="118"/>
     </row>
     <row r="47" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="99" t="s">
+      <c r="B47" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="100">
+      <c r="C47" s="93"/>
+      <c r="D47" s="94">
         <v>45803</v>
       </c>
-      <c r="E47" s="100">
+      <c r="E47" s="94">
         <v>45808</v>
       </c>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="102"/>
-      <c r="J47" s="102"/>
-      <c r="K47" s="102"/>
-      <c r="L47" s="102"/>
-      <c r="M47" s="102"/>
-      <c r="N47" s="102"/>
-      <c r="O47" s="102"/>
-      <c r="P47" s="102"/>
-      <c r="Q47" s="102"/>
-      <c r="R47" s="102"/>
-      <c r="S47" s="102"/>
-      <c r="T47" s="102"/>
-      <c r="U47" s="102"/>
-      <c r="V47" s="102"/>
-      <c r="W47" s="102"/>
-      <c r="X47" s="102"/>
-      <c r="Y47" s="102"/>
-      <c r="Z47" s="102"/>
-      <c r="AA47" s="102"/>
-      <c r="AB47" s="102"/>
-      <c r="AC47" s="102"/>
-      <c r="AD47" s="102"/>
-      <c r="AE47" s="102"/>
-      <c r="AF47" s="102"/>
-      <c r="AG47" s="102"/>
-      <c r="AH47" s="102"/>
-      <c r="AI47" s="102"/>
-      <c r="AJ47" s="102"/>
-      <c r="AK47" s="102"/>
-      <c r="AL47" s="102"/>
-      <c r="AM47" s="102"/>
-      <c r="AN47" s="102"/>
-      <c r="AO47" s="102"/>
-      <c r="AP47" s="102"/>
-      <c r="AQ47" s="102"/>
-      <c r="AR47" s="102"/>
-      <c r="AS47" s="102"/>
-      <c r="AT47" s="102"/>
-      <c r="AU47" s="102"/>
-      <c r="AV47" s="102"/>
-      <c r="AW47" s="102"/>
-      <c r="AX47" s="102"/>
-      <c r="AY47" s="102"/>
-      <c r="AZ47" s="102"/>
-      <c r="BA47" s="102"/>
-      <c r="BB47" s="102"/>
-      <c r="BC47" s="102"/>
-      <c r="BD47" s="102"/>
-      <c r="BE47" s="102"/>
-      <c r="BF47" s="102"/>
-      <c r="BG47" s="102"/>
-      <c r="BH47" s="102"/>
-      <c r="BI47" s="102"/>
-      <c r="BJ47" s="102"/>
-      <c r="BK47" s="102"/>
-      <c r="BL47" s="102"/>
-      <c r="BM47" s="102"/>
-      <c r="BN47" s="102"/>
-      <c r="BO47" s="102"/>
-      <c r="BP47" s="102"/>
-      <c r="BQ47" s="102"/>
-      <c r="BR47" s="102"/>
-      <c r="BS47" s="102"/>
-      <c r="BT47" s="102"/>
-      <c r="BU47" s="102"/>
-      <c r="BV47" s="102"/>
-      <c r="BW47" s="102"/>
-      <c r="BX47" s="102"/>
-      <c r="BY47" s="102"/>
-      <c r="BZ47" s="102"/>
-      <c r="CA47" s="102"/>
-      <c r="CB47" s="102"/>
-      <c r="CC47" s="102"/>
-      <c r="CD47" s="102"/>
-      <c r="CE47" s="102"/>
-      <c r="CF47" s="102"/>
-      <c r="CG47" s="102"/>
-      <c r="CH47" s="102"/>
-      <c r="CI47" s="102"/>
-      <c r="CJ47" s="102"/>
-      <c r="CK47" s="102"/>
-      <c r="CL47" s="102"/>
-      <c r="CM47" s="102"/>
-      <c r="CN47" s="103"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="96"/>
+      <c r="P47" s="96"/>
+      <c r="Q47" s="96"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="96"/>
+      <c r="T47" s="96"/>
+      <c r="U47" s="96"/>
+      <c r="V47" s="96"/>
+      <c r="W47" s="96"/>
+      <c r="X47" s="96"/>
+      <c r="Y47" s="96"/>
+      <c r="Z47" s="96"/>
+      <c r="AA47" s="96"/>
+      <c r="AB47" s="96"/>
+      <c r="AC47" s="96"/>
+      <c r="AD47" s="96"/>
+      <c r="AE47" s="96"/>
+      <c r="AF47" s="96"/>
+      <c r="AG47" s="96"/>
+      <c r="AH47" s="96"/>
+      <c r="AI47" s="96"/>
+      <c r="AJ47" s="96"/>
+      <c r="AK47" s="96"/>
+      <c r="AL47" s="96"/>
+      <c r="AM47" s="96"/>
+      <c r="AN47" s="96"/>
+      <c r="AO47" s="96"/>
+      <c r="AP47" s="96"/>
+      <c r="AQ47" s="96"/>
+      <c r="AR47" s="96"/>
+      <c r="AS47" s="96"/>
+      <c r="AT47" s="96"/>
+      <c r="AU47" s="96"/>
+      <c r="AV47" s="96"/>
+      <c r="AW47" s="96"/>
+      <c r="AX47" s="96"/>
+      <c r="AY47" s="96"/>
+      <c r="AZ47" s="96"/>
+      <c r="BA47" s="96"/>
+      <c r="BB47" s="96"/>
+      <c r="BC47" s="96"/>
+      <c r="BD47" s="96"/>
+      <c r="BE47" s="96"/>
+      <c r="BF47" s="96"/>
+      <c r="BG47" s="96"/>
+      <c r="BH47" s="96"/>
+      <c r="BI47" s="96"/>
+      <c r="BJ47" s="96"/>
+      <c r="BK47" s="96"/>
+      <c r="BL47" s="96"/>
+      <c r="BM47" s="96"/>
+      <c r="BN47" s="96"/>
+      <c r="BO47" s="96"/>
+      <c r="BP47" s="96"/>
+      <c r="BQ47" s="96"/>
+      <c r="BR47" s="96"/>
+      <c r="BS47" s="96"/>
+      <c r="BT47" s="96"/>
+      <c r="BU47" s="96"/>
+      <c r="BV47" s="96"/>
+      <c r="BW47" s="96"/>
+      <c r="BX47" s="96"/>
+      <c r="BY47" s="96"/>
+      <c r="BZ47" s="96"/>
+      <c r="CA47" s="96"/>
+      <c r="CB47" s="96"/>
+      <c r="CC47" s="96"/>
+      <c r="CD47" s="96"/>
+      <c r="CE47" s="96"/>
+      <c r="CF47" s="96"/>
+      <c r="CG47" s="96"/>
+      <c r="CH47" s="96"/>
+      <c r="CI47" s="96"/>
+      <c r="CJ47" s="96"/>
+      <c r="CK47" s="96"/>
+      <c r="CL47" s="96"/>
+      <c r="CM47" s="96"/>
+      <c r="CN47" s="97"/>
+    </row>
+    <row r="48" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="99"/>
+      <c r="D48" s="100">
+        <v>45803</v>
+      </c>
+      <c r="E48" s="100">
+        <v>45808</v>
+      </c>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="102"/>
+      <c r="P48" s="102"/>
+      <c r="Q48" s="102"/>
+      <c r="R48" s="102"/>
+      <c r="S48" s="102"/>
+      <c r="T48" s="102"/>
+      <c r="U48" s="102"/>
+      <c r="V48" s="102"/>
+      <c r="W48" s="102"/>
+      <c r="X48" s="102"/>
+      <c r="Y48" s="102"/>
+      <c r="Z48" s="102"/>
+      <c r="AA48" s="102"/>
+      <c r="AB48" s="102"/>
+      <c r="AC48" s="102"/>
+      <c r="AD48" s="102"/>
+      <c r="AE48" s="102"/>
+      <c r="AF48" s="102"/>
+      <c r="AG48" s="102"/>
+      <c r="AH48" s="102"/>
+      <c r="AI48" s="102"/>
+      <c r="AJ48" s="102"/>
+      <c r="AK48" s="102"/>
+      <c r="AL48" s="102"/>
+      <c r="AM48" s="102"/>
+      <c r="AN48" s="102"/>
+      <c r="AO48" s="102"/>
+      <c r="AP48" s="102"/>
+      <c r="AQ48" s="102"/>
+      <c r="AR48" s="102"/>
+      <c r="AS48" s="102"/>
+      <c r="AT48" s="102"/>
+      <c r="AU48" s="102"/>
+      <c r="AV48" s="102"/>
+      <c r="AW48" s="102"/>
+      <c r="AX48" s="102"/>
+      <c r="AY48" s="102"/>
+      <c r="AZ48" s="102"/>
+      <c r="BA48" s="102"/>
+      <c r="BB48" s="102"/>
+      <c r="BC48" s="102"/>
+      <c r="BD48" s="102"/>
+      <c r="BE48" s="102"/>
+      <c r="BF48" s="102"/>
+      <c r="BG48" s="102"/>
+      <c r="BH48" s="102"/>
+      <c r="BI48" s="102"/>
+      <c r="BJ48" s="102"/>
+      <c r="BK48" s="102"/>
+      <c r="BL48" s="102"/>
+      <c r="BM48" s="102"/>
+      <c r="BN48" s="102"/>
+      <c r="BO48" s="102"/>
+      <c r="BP48" s="102"/>
+      <c r="BQ48" s="102"/>
+      <c r="BR48" s="102"/>
+      <c r="BS48" s="102"/>
+      <c r="BT48" s="102"/>
+      <c r="BU48" s="102"/>
+      <c r="BV48" s="102"/>
+      <c r="BW48" s="102"/>
+      <c r="BX48" s="102"/>
+      <c r="BY48" s="102"/>
+      <c r="BZ48" s="102"/>
+      <c r="CA48" s="102"/>
+      <c r="CB48" s="102"/>
+      <c r="CC48" s="102"/>
+      <c r="CD48" s="102"/>
+      <c r="CE48" s="102"/>
+      <c r="CF48" s="102"/>
+      <c r="CG48" s="102"/>
+      <c r="CH48" s="102"/>
+      <c r="CI48" s="102"/>
+      <c r="CJ48" s="102"/>
+      <c r="CK48" s="102"/>
+      <c r="CL48" s="102"/>
+      <c r="CM48" s="102"/>
+      <c r="CN48" s="103"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="26">
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:Q5"/>
     <mergeCell ref="CE5:CI5"/>
     <mergeCell ref="CJ5:CN5"/>
     <mergeCell ref="D6:E6"/>
@@ -7551,26 +7661,16 @@
     <mergeCell ref="AL5:AP5"/>
     <mergeCell ref="AQ5:AU5"/>
     <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
-  <conditionalFormatting sqref="F19:G21 F28:G32 F33 F46:G47 F38:G43">
+  <conditionalFormatting sqref="F19:G21 F28:G32 F33 F47:G48 F38:G44">
     <cfRule type="expression" dxfId="6" priority="8">
       <formula>D19&lt;F19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:G45">
+  <conditionalFormatting sqref="F45:G46">
     <cfRule type="expression" dxfId="5" priority="1">
-      <formula>D44&lt;F44</formula>
+      <formula>D45&lt;F45</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.51181102362204722" right="0.27559055118110237" top="0.35433070866141736" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -7639,208 +7739,208 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="121">
+      <c r="E1" s="125">
         <v>45761</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:92" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A6" s="70"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="120">
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="121">
         <f>H7</f>
         <v>45761</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120">
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121">
         <f>H6+7</f>
         <v>45768</v>
       </c>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120">
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121">
         <f>M6+7</f>
         <v>45775</v>
       </c>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120">
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121">
         <f>R6+7</f>
         <v>45782</v>
       </c>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="120">
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121">
         <f>W6+7</f>
         <v>45789</v>
       </c>
-      <c r="AC6" s="120"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="120">
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="121">
         <f>AB6+7</f>
         <v>45796</v>
       </c>
-      <c r="AH6" s="120"/>
-      <c r="AI6" s="120"/>
-      <c r="AJ6" s="120"/>
-      <c r="AK6" s="120"/>
-      <c r="AL6" s="120">
+      <c r="AH6" s="121"/>
+      <c r="AI6" s="121"/>
+      <c r="AJ6" s="121"/>
+      <c r="AK6" s="121"/>
+      <c r="AL6" s="121">
         <f>AG6+7</f>
         <v>45803</v>
       </c>
-      <c r="AM6" s="120"/>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="120"/>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="120">
+      <c r="AM6" s="121"/>
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="121"/>
+      <c r="AQ6" s="121">
         <f>AL6+7</f>
         <v>45810</v>
       </c>
-      <c r="AR6" s="120"/>
-      <c r="AS6" s="120"/>
-      <c r="AT6" s="120"/>
-      <c r="AU6" s="120"/>
-      <c r="AV6" s="120">
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121">
         <f>AQ6+7</f>
         <v>45817</v>
       </c>
-      <c r="AW6" s="120"/>
-      <c r="AX6" s="120"/>
-      <c r="AY6" s="120"/>
-      <c r="AZ6" s="120"/>
-      <c r="BA6" s="120">
+      <c r="AW6" s="121"/>
+      <c r="AX6" s="121"/>
+      <c r="AY6" s="121"/>
+      <c r="AZ6" s="121"/>
+      <c r="BA6" s="121">
         <f>AV6+7</f>
         <v>45824</v>
       </c>
-      <c r="BB6" s="120"/>
-      <c r="BC6" s="120"/>
-      <c r="BD6" s="120"/>
-      <c r="BE6" s="120"/>
-      <c r="BF6" s="120">
+      <c r="BB6" s="121"/>
+      <c r="BC6" s="121"/>
+      <c r="BD6" s="121"/>
+      <c r="BE6" s="121"/>
+      <c r="BF6" s="121">
         <f>BA6+7</f>
         <v>45831</v>
       </c>
-      <c r="BG6" s="120"/>
-      <c r="BH6" s="120"/>
-      <c r="BI6" s="120"/>
-      <c r="BJ6" s="120"/>
-      <c r="BK6" s="120">
+      <c r="BG6" s="121"/>
+      <c r="BH6" s="121"/>
+      <c r="BI6" s="121"/>
+      <c r="BJ6" s="121"/>
+      <c r="BK6" s="121">
         <f>BF6+7</f>
         <v>45838</v>
       </c>
-      <c r="BL6" s="120"/>
-      <c r="BM6" s="120"/>
-      <c r="BN6" s="120"/>
-      <c r="BO6" s="120"/>
-      <c r="BP6" s="120">
+      <c r="BL6" s="121"/>
+      <c r="BM6" s="121"/>
+      <c r="BN6" s="121"/>
+      <c r="BO6" s="121"/>
+      <c r="BP6" s="121">
         <f>BK6+7</f>
         <v>45845</v>
       </c>
-      <c r="BQ6" s="120"/>
-      <c r="BR6" s="120"/>
-      <c r="BS6" s="120"/>
-      <c r="BT6" s="120"/>
-      <c r="BU6" s="120">
+      <c r="BQ6" s="121"/>
+      <c r="BR6" s="121"/>
+      <c r="BS6" s="121"/>
+      <c r="BT6" s="121"/>
+      <c r="BU6" s="121">
         <f>BP6+7</f>
         <v>45852</v>
       </c>
-      <c r="BV6" s="120"/>
-      <c r="BW6" s="120"/>
-      <c r="BX6" s="120"/>
-      <c r="BY6" s="120"/>
-      <c r="BZ6" s="120">
+      <c r="BV6" s="121"/>
+      <c r="BW6" s="121"/>
+      <c r="BX6" s="121"/>
+      <c r="BY6" s="121"/>
+      <c r="BZ6" s="121">
         <f>BU6+7</f>
         <v>45859</v>
       </c>
-      <c r="CA6" s="120"/>
-      <c r="CB6" s="120"/>
-      <c r="CC6" s="120"/>
-      <c r="CD6" s="120"/>
-      <c r="CE6" s="120">
+      <c r="CA6" s="121"/>
+      <c r="CB6" s="121"/>
+      <c r="CC6" s="121"/>
+      <c r="CD6" s="121"/>
+      <c r="CE6" s="121">
         <f>BZ6+7</f>
         <v>45866</v>
       </c>
-      <c r="CF6" s="120"/>
-      <c r="CG6" s="120"/>
-      <c r="CH6" s="120"/>
-      <c r="CI6" s="120"/>
-      <c r="CJ6" s="120">
+      <c r="CF6" s="121"/>
+      <c r="CG6" s="121"/>
+      <c r="CH6" s="121"/>
+      <c r="CI6" s="121"/>
+      <c r="CJ6" s="121">
         <f>CE6+7</f>
         <v>45873</v>
       </c>
-      <c r="CK6" s="120"/>
-      <c r="CL6" s="120"/>
-      <c r="CM6" s="120"/>
-      <c r="CN6" s="120"/>
+      <c r="CK6" s="121"/>
+      <c r="CL6" s="121"/>
+      <c r="CM6" s="121"/>
+      <c r="CN6" s="121"/>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="66"/>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129" t="s">
+      <c r="E7" s="123"/>
+      <c r="F7" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="128"/>
+      <c r="G7" s="123"/>
       <c r="H7" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -10922,18 +11022,6 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="28">
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
     <mergeCell ref="CE6:CI6"/>
     <mergeCell ref="CJ6:CN6"/>
     <mergeCell ref="D7:E7"/>
@@ -10950,6 +11038,18 @@
     <mergeCell ref="AL6:AP6"/>
     <mergeCell ref="AQ6:AU6"/>
     <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="F15:G32">
@@ -10983,6 +11083,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EAE907A4656B64D94B3660CCE3E3289" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a563f415b679c7758ab15d8ea1597f6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb" xmlns:ns3="7a9b36dc-435e-4e61-bae3-9454d585c231" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7aa85f2b0697fd2429120a6fef2afd30" ns2:_="" ns3:_="">
     <xsd:import namespace="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
@@ -11199,33 +11325,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
+    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F4340E9-CCDE-483A-9E17-F5E0F38BF909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11242,23 +11361,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
-    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ガントチャート_Over Poured.xlsx
+++ b/ガントチャート_Over Poured.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="86">
   <si>
     <t>企画制作　進捗管理表</t>
     <phoneticPr fontId="19"/>
@@ -499,19 +499,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>状態ごとの演出(エフェクトとか)</t>
-  </si>
-  <si>
-    <t>状態ごとの演出(エフェクトとか)</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>注文に合わせた3Dモデル</t>
     <rPh sb="0" eb="2">
       <t>チュウモン</t>
@@ -644,13 +631,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>演出(エフェクトとか)</t>
-    <rPh sb="0" eb="2">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>ステージ</t>
     <phoneticPr fontId="19"/>
   </si>
@@ -712,6 +692,37 @@
   </si>
   <si>
     <t>オブジェクトをステージにまとめる</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>ゲームシーン以外のシーン作成</t>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>状態ごとの演出(UIとか)</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>状態ごとの演出(UIとか)</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>演出(アニメーションとか)</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -1888,15 +1899,6 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="183" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1914,6 +1916,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1979,12 +1990,7 @@
     <cellStyle name="名前" xfId="11"/>
     <cellStyle name="良い" xfId="18" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2111,15 +2117,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="作業リスト" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="firstColumn" dxfId="12"/>
-      <tableStyleElement type="lastColumn" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2476,11 +2482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN48"/>
+  <dimension ref="A1:CN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H42" sqref="H42"/>
+      <selection pane="topRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -2537,53 +2543,53 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="125">
+      <c r="E1" s="122">
         <v>45761</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A5" s="70"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="130"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
       <c r="H5" s="121">
         <f>H6</f>
         <v>45761</v>
@@ -2725,14 +2731,14 @@
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="124" t="s">
+      <c r="E6" s="129"/>
+      <c r="F6" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="123"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -4642,7 +4648,7 @@
     </row>
     <row r="20" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="62" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B20" s="77" t="s">
         <v>46</v>
@@ -4742,7 +4748,7 @@
     </row>
     <row r="21" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="77" t="s">
         <v>46</v>
@@ -4950,7 +4956,7 @@
     </row>
     <row r="23" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="41" t="s">
         <v>39</v>
@@ -5058,7 +5064,7 @@
     </row>
     <row r="24" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="41" t="s">
         <v>39</v>
@@ -5166,7 +5172,7 @@
     </row>
     <row r="25" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>39</v>
@@ -5274,7 +5280,7 @@
     </row>
     <row r="26" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" s="41" t="s">
         <v>39</v>
@@ -5382,7 +5388,7 @@
     </row>
     <row r="27" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="41" t="s">
         <v>39</v>
@@ -5490,14 +5496,14 @@
     </row>
     <row r="28" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="41"/>
       <c r="D28" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
@@ -5590,14 +5596,14 @@
     </row>
     <row r="29" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
@@ -5690,14 +5696,14 @@
     </row>
     <row r="30" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
@@ -5790,14 +5796,14 @@
     </row>
     <row r="31" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="63" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B31" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="41"/>
       <c r="D31" s="79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
@@ -5986,7 +5992,7 @@
     </row>
     <row r="33" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>39</v>
@@ -6092,13 +6098,13 @@
     </row>
     <row r="34" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" s="54" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="54">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D34" s="55">
         <v>45782</v>
@@ -6200,7 +6206,7 @@
     </row>
     <row r="35" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="54" t="s">
         <v>39</v>
@@ -6308,13 +6314,13 @@
     </row>
     <row r="36" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="54" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="54">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D36" s="55">
         <v>45782</v>
@@ -6416,7 +6422,7 @@
     </row>
     <row r="37" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="54" t="s">
         <v>39</v>
@@ -6524,7 +6530,7 @@
     </row>
     <row r="38" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="64" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B38" s="54" t="s">
         <v>39</v>
@@ -6624,14 +6630,14 @@
     </row>
     <row r="39" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B39" s="54" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="104" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
@@ -6724,7 +6730,7 @@
     </row>
     <row r="40" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="91" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B40" s="80" t="s">
         <v>39</v>
@@ -6826,7 +6832,7 @@
     </row>
     <row r="41" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="85" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B41" s="86" t="s">
         <v>39</v>
@@ -6928,9 +6934,11 @@
     </row>
     <row r="42" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="86"/>
+        <v>81</v>
+      </c>
+      <c r="B42" s="86" t="s">
+        <v>39</v>
+      </c>
       <c r="C42" s="86"/>
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
@@ -7024,7 +7032,7 @@
     </row>
     <row r="43" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="85" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B43" s="86" t="s">
         <v>39</v>
@@ -7126,7 +7134,7 @@
     </row>
     <row r="44" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B44" s="86" t="s">
         <v>39</v>
@@ -7226,7 +7234,7 @@
     </row>
     <row r="45" spans="1:92" s="112" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="106" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B45" s="107" t="s">
         <v>39</v>
@@ -7328,7 +7336,7 @@
     </row>
     <row r="46" spans="1:92" s="119" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="113" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B46" s="114" t="s">
         <v>39</v>
@@ -7428,223 +7436,315 @@
       <c r="CM46" s="117"/>
       <c r="CN46" s="118"/>
     </row>
-    <row r="47" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="93" t="s">
+    <row r="47" spans="1:92" s="119" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="94">
-        <v>45803</v>
-      </c>
-      <c r="E47" s="94">
-        <v>45808</v>
-      </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="96"/>
-      <c r="S47" s="96"/>
-      <c r="T47" s="96"/>
-      <c r="U47" s="96"/>
-      <c r="V47" s="96"/>
-      <c r="W47" s="96"/>
-      <c r="X47" s="96"/>
-      <c r="Y47" s="96"/>
-      <c r="Z47" s="96"/>
-      <c r="AA47" s="96"/>
-      <c r="AB47" s="96"/>
-      <c r="AC47" s="96"/>
-      <c r="AD47" s="96"/>
-      <c r="AE47" s="96"/>
-      <c r="AF47" s="96"/>
-      <c r="AG47" s="96"/>
-      <c r="AH47" s="96"/>
-      <c r="AI47" s="96"/>
-      <c r="AJ47" s="96"/>
-      <c r="AK47" s="96"/>
-      <c r="AL47" s="96"/>
-      <c r="AM47" s="96"/>
-      <c r="AN47" s="96"/>
-      <c r="AO47" s="96"/>
-      <c r="AP47" s="96"/>
-      <c r="AQ47" s="96"/>
-      <c r="AR47" s="96"/>
-      <c r="AS47" s="96"/>
-      <c r="AT47" s="96"/>
-      <c r="AU47" s="96"/>
-      <c r="AV47" s="96"/>
-      <c r="AW47" s="96"/>
-      <c r="AX47" s="96"/>
-      <c r="AY47" s="96"/>
-      <c r="AZ47" s="96"/>
-      <c r="BA47" s="96"/>
-      <c r="BB47" s="96"/>
-      <c r="BC47" s="96"/>
-      <c r="BD47" s="96"/>
-      <c r="BE47" s="96"/>
-      <c r="BF47" s="96"/>
-      <c r="BG47" s="96"/>
-      <c r="BH47" s="96"/>
-      <c r="BI47" s="96"/>
-      <c r="BJ47" s="96"/>
-      <c r="BK47" s="96"/>
-      <c r="BL47" s="96"/>
-      <c r="BM47" s="96"/>
-      <c r="BN47" s="96"/>
-      <c r="BO47" s="96"/>
-      <c r="BP47" s="96"/>
-      <c r="BQ47" s="96"/>
-      <c r="BR47" s="96"/>
-      <c r="BS47" s="96"/>
-      <c r="BT47" s="96"/>
-      <c r="BU47" s="96"/>
-      <c r="BV47" s="96"/>
-      <c r="BW47" s="96"/>
-      <c r="BX47" s="96"/>
-      <c r="BY47" s="96"/>
-      <c r="BZ47" s="96"/>
-      <c r="CA47" s="96"/>
-      <c r="CB47" s="96"/>
-      <c r="CC47" s="96"/>
-      <c r="CD47" s="96"/>
-      <c r="CE47" s="96"/>
-      <c r="CF47" s="96"/>
-      <c r="CG47" s="96"/>
-      <c r="CH47" s="96"/>
-      <c r="CI47" s="96"/>
-      <c r="CJ47" s="96"/>
-      <c r="CK47" s="96"/>
-      <c r="CL47" s="96"/>
-      <c r="CM47" s="96"/>
-      <c r="CN47" s="97"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="115">
+        <v>45797</v>
+      </c>
+      <c r="E47" s="115">
+        <v>45802</v>
+      </c>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="117"/>
+      <c r="M47" s="117"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="117"/>
+      <c r="P47" s="117"/>
+      <c r="Q47" s="117"/>
+      <c r="R47" s="117"/>
+      <c r="S47" s="117"/>
+      <c r="T47" s="117"/>
+      <c r="U47" s="117"/>
+      <c r="V47" s="117"/>
+      <c r="W47" s="117"/>
+      <c r="X47" s="117"/>
+      <c r="Y47" s="117"/>
+      <c r="Z47" s="117"/>
+      <c r="AA47" s="117"/>
+      <c r="AB47" s="117"/>
+      <c r="AC47" s="117"/>
+      <c r="AD47" s="117"/>
+      <c r="AE47" s="117"/>
+      <c r="AF47" s="117"/>
+      <c r="AG47" s="117"/>
+      <c r="AH47" s="117"/>
+      <c r="AI47" s="117"/>
+      <c r="AJ47" s="117"/>
+      <c r="AK47" s="117"/>
+      <c r="AL47" s="117"/>
+      <c r="AM47" s="117"/>
+      <c r="AN47" s="117"/>
+      <c r="AO47" s="117"/>
+      <c r="AP47" s="117"/>
+      <c r="AQ47" s="117"/>
+      <c r="AR47" s="117"/>
+      <c r="AS47" s="117"/>
+      <c r="AT47" s="117"/>
+      <c r="AU47" s="117"/>
+      <c r="AV47" s="117"/>
+      <c r="AW47" s="117"/>
+      <c r="AX47" s="117"/>
+      <c r="AY47" s="117"/>
+      <c r="AZ47" s="117"/>
+      <c r="BA47" s="117"/>
+      <c r="BB47" s="117"/>
+      <c r="BC47" s="117"/>
+      <c r="BD47" s="117"/>
+      <c r="BE47" s="117"/>
+      <c r="BF47" s="117"/>
+      <c r="BG47" s="117"/>
+      <c r="BH47" s="117"/>
+      <c r="BI47" s="117"/>
+      <c r="BJ47" s="117"/>
+      <c r="BK47" s="117"/>
+      <c r="BL47" s="117"/>
+      <c r="BM47" s="117"/>
+      <c r="BN47" s="117"/>
+      <c r="BO47" s="117"/>
+      <c r="BP47" s="117"/>
+      <c r="BQ47" s="117"/>
+      <c r="BR47" s="117"/>
+      <c r="BS47" s="117"/>
+      <c r="BT47" s="117"/>
+      <c r="BU47" s="117"/>
+      <c r="BV47" s="117"/>
+      <c r="BW47" s="117"/>
+      <c r="BX47" s="117"/>
+      <c r="BY47" s="117"/>
+      <c r="BZ47" s="117"/>
+      <c r="CA47" s="117"/>
+      <c r="CB47" s="117"/>
+      <c r="CC47" s="117"/>
+      <c r="CD47" s="117"/>
+      <c r="CE47" s="117"/>
+      <c r="CF47" s="117"/>
+      <c r="CG47" s="117"/>
+      <c r="CH47" s="117"/>
+      <c r="CI47" s="117"/>
+      <c r="CJ47" s="117"/>
+      <c r="CK47" s="117"/>
+      <c r="CL47" s="117"/>
+      <c r="CM47" s="117"/>
+      <c r="CN47" s="118"/>
     </row>
     <row r="48" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="99" t="s">
+      <c r="A48" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="100">
+      <c r="C48" s="93"/>
+      <c r="D48" s="94">
         <v>45803</v>
       </c>
-      <c r="E48" s="100">
+      <c r="E48" s="94">
         <v>45808</v>
       </c>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="102"/>
-      <c r="O48" s="102"/>
-      <c r="P48" s="102"/>
-      <c r="Q48" s="102"/>
-      <c r="R48" s="102"/>
-      <c r="S48" s="102"/>
-      <c r="T48" s="102"/>
-      <c r="U48" s="102"/>
-      <c r="V48" s="102"/>
-      <c r="W48" s="102"/>
-      <c r="X48" s="102"/>
-      <c r="Y48" s="102"/>
-      <c r="Z48" s="102"/>
-      <c r="AA48" s="102"/>
-      <c r="AB48" s="102"/>
-      <c r="AC48" s="102"/>
-      <c r="AD48" s="102"/>
-      <c r="AE48" s="102"/>
-      <c r="AF48" s="102"/>
-      <c r="AG48" s="102"/>
-      <c r="AH48" s="102"/>
-      <c r="AI48" s="102"/>
-      <c r="AJ48" s="102"/>
-      <c r="AK48" s="102"/>
-      <c r="AL48" s="102"/>
-      <c r="AM48" s="102"/>
-      <c r="AN48" s="102"/>
-      <c r="AO48" s="102"/>
-      <c r="AP48" s="102"/>
-      <c r="AQ48" s="102"/>
-      <c r="AR48" s="102"/>
-      <c r="AS48" s="102"/>
-      <c r="AT48" s="102"/>
-      <c r="AU48" s="102"/>
-      <c r="AV48" s="102"/>
-      <c r="AW48" s="102"/>
-      <c r="AX48" s="102"/>
-      <c r="AY48" s="102"/>
-      <c r="AZ48" s="102"/>
-      <c r="BA48" s="102"/>
-      <c r="BB48" s="102"/>
-      <c r="BC48" s="102"/>
-      <c r="BD48" s="102"/>
-      <c r="BE48" s="102"/>
-      <c r="BF48" s="102"/>
-      <c r="BG48" s="102"/>
-      <c r="BH48" s="102"/>
-      <c r="BI48" s="102"/>
-      <c r="BJ48" s="102"/>
-      <c r="BK48" s="102"/>
-      <c r="BL48" s="102"/>
-      <c r="BM48" s="102"/>
-      <c r="BN48" s="102"/>
-      <c r="BO48" s="102"/>
-      <c r="BP48" s="102"/>
-      <c r="BQ48" s="102"/>
-      <c r="BR48" s="102"/>
-      <c r="BS48" s="102"/>
-      <c r="BT48" s="102"/>
-      <c r="BU48" s="102"/>
-      <c r="BV48" s="102"/>
-      <c r="BW48" s="102"/>
-      <c r="BX48" s="102"/>
-      <c r="BY48" s="102"/>
-      <c r="BZ48" s="102"/>
-      <c r="CA48" s="102"/>
-      <c r="CB48" s="102"/>
-      <c r="CC48" s="102"/>
-      <c r="CD48" s="102"/>
-      <c r="CE48" s="102"/>
-      <c r="CF48" s="102"/>
-      <c r="CG48" s="102"/>
-      <c r="CH48" s="102"/>
-      <c r="CI48" s="102"/>
-      <c r="CJ48" s="102"/>
-      <c r="CK48" s="102"/>
-      <c r="CL48" s="102"/>
-      <c r="CM48" s="102"/>
-      <c r="CN48" s="103"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
+      <c r="O48" s="96"/>
+      <c r="P48" s="96"/>
+      <c r="Q48" s="96"/>
+      <c r="R48" s="96"/>
+      <c r="S48" s="96"/>
+      <c r="T48" s="96"/>
+      <c r="U48" s="96"/>
+      <c r="V48" s="96"/>
+      <c r="W48" s="96"/>
+      <c r="X48" s="96"/>
+      <c r="Y48" s="96"/>
+      <c r="Z48" s="96"/>
+      <c r="AA48" s="96"/>
+      <c r="AB48" s="96"/>
+      <c r="AC48" s="96"/>
+      <c r="AD48" s="96"/>
+      <c r="AE48" s="96"/>
+      <c r="AF48" s="96"/>
+      <c r="AG48" s="96"/>
+      <c r="AH48" s="96"/>
+      <c r="AI48" s="96"/>
+      <c r="AJ48" s="96"/>
+      <c r="AK48" s="96"/>
+      <c r="AL48" s="96"/>
+      <c r="AM48" s="96"/>
+      <c r="AN48" s="96"/>
+      <c r="AO48" s="96"/>
+      <c r="AP48" s="96"/>
+      <c r="AQ48" s="96"/>
+      <c r="AR48" s="96"/>
+      <c r="AS48" s="96"/>
+      <c r="AT48" s="96"/>
+      <c r="AU48" s="96"/>
+      <c r="AV48" s="96"/>
+      <c r="AW48" s="96"/>
+      <c r="AX48" s="96"/>
+      <c r="AY48" s="96"/>
+      <c r="AZ48" s="96"/>
+      <c r="BA48" s="96"/>
+      <c r="BB48" s="96"/>
+      <c r="BC48" s="96"/>
+      <c r="BD48" s="96"/>
+      <c r="BE48" s="96"/>
+      <c r="BF48" s="96"/>
+      <c r="BG48" s="96"/>
+      <c r="BH48" s="96"/>
+      <c r="BI48" s="96"/>
+      <c r="BJ48" s="96"/>
+      <c r="BK48" s="96"/>
+      <c r="BL48" s="96"/>
+      <c r="BM48" s="96"/>
+      <c r="BN48" s="96"/>
+      <c r="BO48" s="96"/>
+      <c r="BP48" s="96"/>
+      <c r="BQ48" s="96"/>
+      <c r="BR48" s="96"/>
+      <c r="BS48" s="96"/>
+      <c r="BT48" s="96"/>
+      <c r="BU48" s="96"/>
+      <c r="BV48" s="96"/>
+      <c r="BW48" s="96"/>
+      <c r="BX48" s="96"/>
+      <c r="BY48" s="96"/>
+      <c r="BZ48" s="96"/>
+      <c r="CA48" s="96"/>
+      <c r="CB48" s="96"/>
+      <c r="CC48" s="96"/>
+      <c r="CD48" s="96"/>
+      <c r="CE48" s="96"/>
+      <c r="CF48" s="96"/>
+      <c r="CG48" s="96"/>
+      <c r="CH48" s="96"/>
+      <c r="CI48" s="96"/>
+      <c r="CJ48" s="96"/>
+      <c r="CK48" s="96"/>
+      <c r="CL48" s="96"/>
+      <c r="CM48" s="96"/>
+      <c r="CN48" s="97"/>
+    </row>
+    <row r="49" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="99"/>
+      <c r="D49" s="100">
+        <v>45803</v>
+      </c>
+      <c r="E49" s="100">
+        <v>45808</v>
+      </c>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="102"/>
+      <c r="O49" s="102"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="102"/>
+      <c r="S49" s="102"/>
+      <c r="T49" s="102"/>
+      <c r="U49" s="102"/>
+      <c r="V49" s="102"/>
+      <c r="W49" s="102"/>
+      <c r="X49" s="102"/>
+      <c r="Y49" s="102"/>
+      <c r="Z49" s="102"/>
+      <c r="AA49" s="102"/>
+      <c r="AB49" s="102"/>
+      <c r="AC49" s="102"/>
+      <c r="AD49" s="102"/>
+      <c r="AE49" s="102"/>
+      <c r="AF49" s="102"/>
+      <c r="AG49" s="102"/>
+      <c r="AH49" s="102"/>
+      <c r="AI49" s="102"/>
+      <c r="AJ49" s="102"/>
+      <c r="AK49" s="102"/>
+      <c r="AL49" s="102"/>
+      <c r="AM49" s="102"/>
+      <c r="AN49" s="102"/>
+      <c r="AO49" s="102"/>
+      <c r="AP49" s="102"/>
+      <c r="AQ49" s="102"/>
+      <c r="AR49" s="102"/>
+      <c r="AS49" s="102"/>
+      <c r="AT49" s="102"/>
+      <c r="AU49" s="102"/>
+      <c r="AV49" s="102"/>
+      <c r="AW49" s="102"/>
+      <c r="AX49" s="102"/>
+      <c r="AY49" s="102"/>
+      <c r="AZ49" s="102"/>
+      <c r="BA49" s="102"/>
+      <c r="BB49" s="102"/>
+      <c r="BC49" s="102"/>
+      <c r="BD49" s="102"/>
+      <c r="BE49" s="102"/>
+      <c r="BF49" s="102"/>
+      <c r="BG49" s="102"/>
+      <c r="BH49" s="102"/>
+      <c r="BI49" s="102"/>
+      <c r="BJ49" s="102"/>
+      <c r="BK49" s="102"/>
+      <c r="BL49" s="102"/>
+      <c r="BM49" s="102"/>
+      <c r="BN49" s="102"/>
+      <c r="BO49" s="102"/>
+      <c r="BP49" s="102"/>
+      <c r="BQ49" s="102"/>
+      <c r="BR49" s="102"/>
+      <c r="BS49" s="102"/>
+      <c r="BT49" s="102"/>
+      <c r="BU49" s="102"/>
+      <c r="BV49" s="102"/>
+      <c r="BW49" s="102"/>
+      <c r="BX49" s="102"/>
+      <c r="BY49" s="102"/>
+      <c r="BZ49" s="102"/>
+      <c r="CA49" s="102"/>
+      <c r="CB49" s="102"/>
+      <c r="CC49" s="102"/>
+      <c r="CD49" s="102"/>
+      <c r="CE49" s="102"/>
+      <c r="CF49" s="102"/>
+      <c r="CG49" s="102"/>
+      <c r="CH49" s="102"/>
+      <c r="CI49" s="102"/>
+      <c r="CJ49" s="102"/>
+      <c r="CK49" s="102"/>
+      <c r="CL49" s="102"/>
+      <c r="CM49" s="102"/>
+      <c r="CN49" s="103"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="26">
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:Q5"/>
     <mergeCell ref="CE5:CI5"/>
     <mergeCell ref="CJ5:CN5"/>
     <mergeCell ref="D6:E6"/>
@@ -7661,16 +7761,21 @@
     <mergeCell ref="AL5:AP5"/>
     <mergeCell ref="AQ5:AU5"/>
     <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
-  <conditionalFormatting sqref="F19:G21 F28:G32 F33 F47:G48 F38:G44">
-    <cfRule type="expression" dxfId="6" priority="8">
+  <conditionalFormatting sqref="F19:G21 F28:G32 F33 F38:G49">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>D19&lt;F19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:G46">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>D45&lt;F45</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.51181102362204722" right="0.27559055118110237" top="0.35433070866141736" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -7682,7 +7787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -7739,44 +7844,44 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="125">
+      <c r="E1" s="122">
         <v>45761</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
     </row>
     <row r="5" spans="1:92" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D5" s="131"/>
@@ -7786,12 +7891,12 @@
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A6" s="70"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="130"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="127"/>
       <c r="H6" s="121">
         <f>H7</f>
         <v>45761</v>
@@ -7933,14 +8038,14 @@
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="66"/>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="124" t="s">
+      <c r="E7" s="129"/>
+      <c r="F7" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="123"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -11022,6 +11127,18 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="28">
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
     <mergeCell ref="CE6:CI6"/>
     <mergeCell ref="CJ6:CN6"/>
     <mergeCell ref="D7:E7"/>
@@ -11038,18 +11155,6 @@
     <mergeCell ref="AL6:AP6"/>
     <mergeCell ref="AQ6:AU6"/>
     <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="F15:G32">
@@ -11100,15 +11205,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EAE907A4656B64D94B3660CCE3E3289" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a563f415b679c7758ab15d8ea1597f6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb" xmlns:ns3="7a9b36dc-435e-4e61-bae3-9454d585c231" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7aa85f2b0697fd2429120a6fef2afd30" ns2:_="" ns3:_="">
     <xsd:import namespace="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
@@ -11325,6 +11421,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
@@ -11337,14 +11442,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F4340E9-CCDE-483A-9E17-F5E0F38BF909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11361,4 +11458,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ガントチャート_Over Poured.xlsx
+++ b/ガントチャート_Over Poured.xlsx
@@ -742,7 +742,7 @@
     <numFmt numFmtId="182" formatCode="yyyy/m/d\ \,\ aaa"/>
     <numFmt numFmtId="183" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ \ \ &quot;(&quot;aaa&quot;)&quot;"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,6 +928,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1528,7 +1535,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="39" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1899,6 +1906,15 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="183" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1918,20 +1934,14 @@
     <xf numFmtId="182" fontId="1" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2486,7 +2496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B36" sqref="B36"/>
+      <selection pane="topRight" activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -2543,53 +2553,53 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="122">
+      <c r="E1" s="125">
         <v>45761</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A5" s="70"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="130"/>
       <c r="H5" s="121">
         <f>H6</f>
         <v>45761</v>
@@ -2731,14 +2741,14 @@
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130" t="s">
+      <c r="E6" s="123"/>
+      <c r="F6" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="129"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -5997,7 +6007,9 @@
       <c r="B33" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="48"/>
+      <c r="C33" s="48">
+        <v>100</v>
+      </c>
       <c r="D33" s="49">
         <v>45782</v>
       </c>
@@ -6867,7 +6879,7 @@
       <c r="Z41" s="89"/>
       <c r="AA41" s="89"/>
       <c r="AB41" s="89"/>
-      <c r="AC41" s="89"/>
+      <c r="AC41" s="133"/>
       <c r="AD41" s="89"/>
       <c r="AE41" s="89"/>
       <c r="AF41" s="89"/>
@@ -6939,9 +6951,15 @@
       <c r="B42" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
+      <c r="C42" s="86">
+        <v>30</v>
+      </c>
+      <c r="D42" s="87">
+        <v>45790</v>
+      </c>
+      <c r="E42" s="87">
+        <v>45796</v>
+      </c>
       <c r="F42" s="87"/>
       <c r="G42" s="87"/>
       <c r="H42" s="88"/>
@@ -6965,11 +6983,11 @@
       <c r="Z42" s="89"/>
       <c r="AA42" s="89"/>
       <c r="AB42" s="89"/>
-      <c r="AC42" s="89"/>
-      <c r="AD42" s="89"/>
-      <c r="AE42" s="89"/>
-      <c r="AF42" s="89"/>
-      <c r="AG42" s="89"/>
+      <c r="AC42" s="76"/>
+      <c r="AD42" s="76"/>
+      <c r="AE42" s="76"/>
+      <c r="AF42" s="76"/>
+      <c r="AG42" s="76"/>
       <c r="AH42" s="89"/>
       <c r="AI42" s="89"/>
       <c r="AJ42" s="89"/>
@@ -7037,7 +7055,9 @@
       <c r="B43" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="86"/>
+      <c r="C43" s="86">
+        <v>50</v>
+      </c>
       <c r="D43" s="87">
         <v>45790</v>
       </c>
@@ -7067,11 +7087,11 @@
       <c r="Z43" s="89"/>
       <c r="AA43" s="89"/>
       <c r="AB43" s="89"/>
-      <c r="AC43" s="89"/>
-      <c r="AD43" s="89"/>
-      <c r="AE43" s="89"/>
-      <c r="AF43" s="89"/>
-      <c r="AG43" s="89"/>
+      <c r="AC43" s="76"/>
+      <c r="AD43" s="76"/>
+      <c r="AE43" s="76"/>
+      <c r="AF43" s="76"/>
+      <c r="AG43" s="76"/>
       <c r="AH43" s="89"/>
       <c r="AI43" s="89"/>
       <c r="AJ43" s="89"/>
@@ -7745,6 +7765,16 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="26">
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:Q5"/>
     <mergeCell ref="CE5:CI5"/>
     <mergeCell ref="CJ5:CN5"/>
     <mergeCell ref="D6:E6"/>
@@ -7761,16 +7791,6 @@
     <mergeCell ref="AL5:AP5"/>
     <mergeCell ref="AQ5:AU5"/>
     <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="F19:G21 F28:G32 F33 F38:G49">
@@ -7844,44 +7864,44 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="122">
+      <c r="E1" s="125">
         <v>45761</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:92" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D5" s="131"/>
@@ -7891,12 +7911,12 @@
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A6" s="70"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="127"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="130"/>
       <c r="H6" s="121">
         <f>H7</f>
         <v>45761</v>
@@ -8038,14 +8058,14 @@
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="66"/>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="130" t="s">
+      <c r="E7" s="123"/>
+      <c r="F7" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="129"/>
+      <c r="G7" s="123"/>
       <c r="H7" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -11127,18 +11147,6 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="28">
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
     <mergeCell ref="CE6:CI6"/>
     <mergeCell ref="CJ6:CN6"/>
     <mergeCell ref="D7:E7"/>
@@ -11155,6 +11163,18 @@
     <mergeCell ref="AL6:AP6"/>
     <mergeCell ref="AQ6:AU6"/>
     <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="F15:G32">
@@ -11188,20 +11208,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11422,21 +11434,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
-    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11461,9 +11478,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
+    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ガントチャート_Over Poured.xlsx
+++ b/ガントチャート_Over Poured.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="87">
   <si>
     <t>企画制作　進捗管理表</t>
     <phoneticPr fontId="19"/>
@@ -670,16 +670,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>オブジェクト毎のフラグや状態</t>
-    <rPh sb="6" eb="7">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>中間発表後</t>
     <phoneticPr fontId="19"/>
   </si>
@@ -722,6 +712,20 @@
     <t>演出(アニメーションとか)</t>
     <rPh sb="0" eb="2">
       <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>中間発表後</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>jsonでパラメータ読み込み</t>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
@@ -1903,16 +1907,10 @@
     <xf numFmtId="0" fontId="20" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="183" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1934,14 +1932,20 @@
     <xf numFmtId="182" fontId="1" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2496,7 +2500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O49" sqref="O49"/>
+      <selection pane="topRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -2553,202 +2557,202 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="125">
+      <c r="E1" s="123">
         <v>45761</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A5" s="70"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="121">
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="122">
         <f>H6</f>
         <v>45761</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121">
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122">
         <f>H5+7</f>
         <v>45768</v>
       </c>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121">
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122">
         <f>M5+7</f>
         <v>45775</v>
       </c>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121">
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122">
         <f>R5+7</f>
         <v>45782</v>
       </c>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121">
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122">
         <f>W5+7</f>
         <v>45789</v>
       </c>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
-      <c r="AF5" s="121"/>
-      <c r="AG5" s="121">
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="122">
         <f>AB5+7</f>
         <v>45796</v>
       </c>
-      <c r="AH5" s="121"/>
-      <c r="AI5" s="121"/>
-      <c r="AJ5" s="121"/>
-      <c r="AK5" s="121"/>
-      <c r="AL5" s="121">
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="122"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122"/>
+      <c r="AL5" s="122">
         <f>AG5+7</f>
         <v>45803</v>
       </c>
-      <c r="AM5" s="121"/>
-      <c r="AN5" s="121"/>
-      <c r="AO5" s="121"/>
-      <c r="AP5" s="121"/>
-      <c r="AQ5" s="121">
+      <c r="AM5" s="122"/>
+      <c r="AN5" s="122"/>
+      <c r="AO5" s="122"/>
+      <c r="AP5" s="122"/>
+      <c r="AQ5" s="122">
         <f>AL5+7</f>
         <v>45810</v>
       </c>
-      <c r="AR5" s="121"/>
-      <c r="AS5" s="121"/>
-      <c r="AT5" s="121"/>
-      <c r="AU5" s="121"/>
-      <c r="AV5" s="121">
+      <c r="AR5" s="122"/>
+      <c r="AS5" s="122"/>
+      <c r="AT5" s="122"/>
+      <c r="AU5" s="122"/>
+      <c r="AV5" s="122">
         <f>AQ5+7</f>
         <v>45817</v>
       </c>
-      <c r="AW5" s="121"/>
-      <c r="AX5" s="121"/>
-      <c r="AY5" s="121"/>
-      <c r="AZ5" s="121"/>
-      <c r="BA5" s="121">
+      <c r="AW5" s="122"/>
+      <c r="AX5" s="122"/>
+      <c r="AY5" s="122"/>
+      <c r="AZ5" s="122"/>
+      <c r="BA5" s="122">
         <f>AV5+7</f>
         <v>45824</v>
       </c>
-      <c r="BB5" s="121"/>
-      <c r="BC5" s="121"/>
-      <c r="BD5" s="121"/>
-      <c r="BE5" s="121"/>
-      <c r="BF5" s="121">
+      <c r="BB5" s="122"/>
+      <c r="BC5" s="122"/>
+      <c r="BD5" s="122"/>
+      <c r="BE5" s="122"/>
+      <c r="BF5" s="122">
         <f>BA5+7</f>
         <v>45831</v>
       </c>
-      <c r="BG5" s="121"/>
-      <c r="BH5" s="121"/>
-      <c r="BI5" s="121"/>
-      <c r="BJ5" s="121"/>
-      <c r="BK5" s="121">
+      <c r="BG5" s="122"/>
+      <c r="BH5" s="122"/>
+      <c r="BI5" s="122"/>
+      <c r="BJ5" s="122"/>
+      <c r="BK5" s="122">
         <f>BF5+7</f>
         <v>45838</v>
       </c>
-      <c r="BL5" s="121"/>
-      <c r="BM5" s="121"/>
-      <c r="BN5" s="121"/>
-      <c r="BO5" s="121"/>
-      <c r="BP5" s="121">
+      <c r="BL5" s="122"/>
+      <c r="BM5" s="122"/>
+      <c r="BN5" s="122"/>
+      <c r="BO5" s="122"/>
+      <c r="BP5" s="122">
         <f>BK5+7</f>
         <v>45845</v>
       </c>
-      <c r="BQ5" s="121"/>
-      <c r="BR5" s="121"/>
-      <c r="BS5" s="121"/>
-      <c r="BT5" s="121"/>
-      <c r="BU5" s="121">
+      <c r="BQ5" s="122"/>
+      <c r="BR5" s="122"/>
+      <c r="BS5" s="122"/>
+      <c r="BT5" s="122"/>
+      <c r="BU5" s="122">
         <f>BP5+7</f>
         <v>45852</v>
       </c>
-      <c r="BV5" s="121"/>
-      <c r="BW5" s="121"/>
-      <c r="BX5" s="121"/>
-      <c r="BY5" s="121"/>
-      <c r="BZ5" s="121">
+      <c r="BV5" s="122"/>
+      <c r="BW5" s="122"/>
+      <c r="BX5" s="122"/>
+      <c r="BY5" s="122"/>
+      <c r="BZ5" s="122">
         <f>BU5+7</f>
         <v>45859</v>
       </c>
-      <c r="CA5" s="121"/>
-      <c r="CB5" s="121"/>
-      <c r="CC5" s="121"/>
-      <c r="CD5" s="121"/>
-      <c r="CE5" s="121">
+      <c r="CA5" s="122"/>
+      <c r="CB5" s="122"/>
+      <c r="CC5" s="122"/>
+      <c r="CD5" s="122"/>
+      <c r="CE5" s="122">
         <f>BZ5+7</f>
         <v>45866</v>
       </c>
-      <c r="CF5" s="121"/>
-      <c r="CG5" s="121"/>
-      <c r="CH5" s="121"/>
-      <c r="CI5" s="121"/>
-      <c r="CJ5" s="121">
+      <c r="CF5" s="122"/>
+      <c r="CG5" s="122"/>
+      <c r="CH5" s="122"/>
+      <c r="CI5" s="122"/>
+      <c r="CJ5" s="122">
         <f>CE5+7</f>
         <v>45873</v>
       </c>
-      <c r="CK5" s="121"/>
-      <c r="CL5" s="121"/>
-      <c r="CM5" s="121"/>
-      <c r="CN5" s="121"/>
+      <c r="CK5" s="122"/>
+      <c r="CL5" s="122"/>
+      <c r="CM5" s="122"/>
+      <c r="CN5" s="122"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="124" t="s">
+      <c r="E6" s="130"/>
+      <c r="F6" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="123"/>
+      <c r="G6" s="130"/>
       <c r="H6" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -4658,7 +4662,7 @@
     </row>
     <row r="20" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="77" t="s">
         <v>46</v>
@@ -5806,7 +5810,7 @@
     </row>
     <row r="31" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="41" t="s">
         <v>39</v>
@@ -6542,14 +6546,14 @@
     </row>
     <row r="38" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="54" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="54"/>
       <c r="D38" s="104" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
@@ -6649,7 +6653,7 @@
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
@@ -6879,7 +6883,7 @@
       <c r="Z41" s="89"/>
       <c r="AA41" s="89"/>
       <c r="AB41" s="89"/>
-      <c r="AC41" s="133"/>
+      <c r="AC41" s="121"/>
       <c r="AD41" s="89"/>
       <c r="AE41" s="89"/>
       <c r="AF41" s="89"/>
@@ -6946,7 +6950,7 @@
     </row>
     <row r="42" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="86" t="s">
         <v>39</v>
@@ -7050,7 +7054,7 @@
     </row>
     <row r="43" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="85" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B43" s="86" t="s">
         <v>39</v>
@@ -7154,7 +7158,7 @@
     </row>
     <row r="44" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="86" t="s">
         <v>39</v>
@@ -7458,7 +7462,7 @@
     </row>
     <row r="47" spans="1:92" s="119" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" s="114" t="s">
         <v>39</v>
@@ -7765,16 +7769,6 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="26">
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:Q5"/>
     <mergeCell ref="CE5:CI5"/>
     <mergeCell ref="CJ5:CN5"/>
     <mergeCell ref="D6:E6"/>
@@ -7791,6 +7785,16 @@
     <mergeCell ref="AL5:AP5"/>
     <mergeCell ref="AQ5:AU5"/>
     <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="F19:G21 F28:G32 F33 F38:G49">
@@ -7864,208 +7868,208 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="125">
+      <c r="E1" s="123">
         <v>45761</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
     </row>
     <row r="5" spans="1:92" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A6" s="70"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="121">
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="122">
         <f>H7</f>
         <v>45761</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121">
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122">
         <f>H6+7</f>
         <v>45768</v>
       </c>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121">
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122">
         <f>M6+7</f>
         <v>45775</v>
       </c>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121">
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122">
         <f>R6+7</f>
         <v>45782</v>
       </c>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121">
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122">
         <f>W6+7</f>
         <v>45789</v>
       </c>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
-      <c r="AF6" s="121"/>
-      <c r="AG6" s="121">
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122">
         <f>AB6+7</f>
         <v>45796</v>
       </c>
-      <c r="AH6" s="121"/>
-      <c r="AI6" s="121"/>
-      <c r="AJ6" s="121"/>
-      <c r="AK6" s="121"/>
-      <c r="AL6" s="121">
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="122"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="122">
         <f>AG6+7</f>
         <v>45803</v>
       </c>
-      <c r="AM6" s="121"/>
-      <c r="AN6" s="121"/>
-      <c r="AO6" s="121"/>
-      <c r="AP6" s="121"/>
-      <c r="AQ6" s="121">
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="122"/>
+      <c r="AO6" s="122"/>
+      <c r="AP6" s="122"/>
+      <c r="AQ6" s="122">
         <f>AL6+7</f>
         <v>45810</v>
       </c>
-      <c r="AR6" s="121"/>
-      <c r="AS6" s="121"/>
-      <c r="AT6" s="121"/>
-      <c r="AU6" s="121"/>
-      <c r="AV6" s="121">
+      <c r="AR6" s="122"/>
+      <c r="AS6" s="122"/>
+      <c r="AT6" s="122"/>
+      <c r="AU6" s="122"/>
+      <c r="AV6" s="122">
         <f>AQ6+7</f>
         <v>45817</v>
       </c>
-      <c r="AW6" s="121"/>
-      <c r="AX6" s="121"/>
-      <c r="AY6" s="121"/>
-      <c r="AZ6" s="121"/>
-      <c r="BA6" s="121">
+      <c r="AW6" s="122"/>
+      <c r="AX6" s="122"/>
+      <c r="AY6" s="122"/>
+      <c r="AZ6" s="122"/>
+      <c r="BA6" s="122">
         <f>AV6+7</f>
         <v>45824</v>
       </c>
-      <c r="BB6" s="121"/>
-      <c r="BC6" s="121"/>
-      <c r="BD6" s="121"/>
-      <c r="BE6" s="121"/>
-      <c r="BF6" s="121">
+      <c r="BB6" s="122"/>
+      <c r="BC6" s="122"/>
+      <c r="BD6" s="122"/>
+      <c r="BE6" s="122"/>
+      <c r="BF6" s="122">
         <f>BA6+7</f>
         <v>45831</v>
       </c>
-      <c r="BG6" s="121"/>
-      <c r="BH6" s="121"/>
-      <c r="BI6" s="121"/>
-      <c r="BJ6" s="121"/>
-      <c r="BK6" s="121">
+      <c r="BG6" s="122"/>
+      <c r="BH6" s="122"/>
+      <c r="BI6" s="122"/>
+      <c r="BJ6" s="122"/>
+      <c r="BK6" s="122">
         <f>BF6+7</f>
         <v>45838</v>
       </c>
-      <c r="BL6" s="121"/>
-      <c r="BM6" s="121"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="121"/>
-      <c r="BP6" s="121">
+      <c r="BL6" s="122"/>
+      <c r="BM6" s="122"/>
+      <c r="BN6" s="122"/>
+      <c r="BO6" s="122"/>
+      <c r="BP6" s="122">
         <f>BK6+7</f>
         <v>45845</v>
       </c>
-      <c r="BQ6" s="121"/>
-      <c r="BR6" s="121"/>
-      <c r="BS6" s="121"/>
-      <c r="BT6" s="121"/>
-      <c r="BU6" s="121">
+      <c r="BQ6" s="122"/>
+      <c r="BR6" s="122"/>
+      <c r="BS6" s="122"/>
+      <c r="BT6" s="122"/>
+      <c r="BU6" s="122">
         <f>BP6+7</f>
         <v>45852</v>
       </c>
-      <c r="BV6" s="121"/>
-      <c r="BW6" s="121"/>
-      <c r="BX6" s="121"/>
-      <c r="BY6" s="121"/>
-      <c r="BZ6" s="121">
+      <c r="BV6" s="122"/>
+      <c r="BW6" s="122"/>
+      <c r="BX6" s="122"/>
+      <c r="BY6" s="122"/>
+      <c r="BZ6" s="122">
         <f>BU6+7</f>
         <v>45859</v>
       </c>
-      <c r="CA6" s="121"/>
-      <c r="CB6" s="121"/>
-      <c r="CC6" s="121"/>
-      <c r="CD6" s="121"/>
-      <c r="CE6" s="121">
+      <c r="CA6" s="122"/>
+      <c r="CB6" s="122"/>
+      <c r="CC6" s="122"/>
+      <c r="CD6" s="122"/>
+      <c r="CE6" s="122">
         <f>BZ6+7</f>
         <v>45866</v>
       </c>
-      <c r="CF6" s="121"/>
-      <c r="CG6" s="121"/>
-      <c r="CH6" s="121"/>
-      <c r="CI6" s="121"/>
-      <c r="CJ6" s="121">
+      <c r="CF6" s="122"/>
+      <c r="CG6" s="122"/>
+      <c r="CH6" s="122"/>
+      <c r="CI6" s="122"/>
+      <c r="CJ6" s="122">
         <f>CE6+7</f>
         <v>45873</v>
       </c>
-      <c r="CK6" s="121"/>
-      <c r="CL6" s="121"/>
-      <c r="CM6" s="121"/>
-      <c r="CN6" s="121"/>
+      <c r="CK6" s="122"/>
+      <c r="CL6" s="122"/>
+      <c r="CM6" s="122"/>
+      <c r="CN6" s="122"/>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="66"/>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="124" t="s">
+      <c r="E7" s="130"/>
+      <c r="F7" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="123"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -11147,6 +11151,18 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="28">
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
     <mergeCell ref="CE6:CI6"/>
     <mergeCell ref="CJ6:CN6"/>
     <mergeCell ref="D7:E7"/>
@@ -11163,18 +11179,6 @@
     <mergeCell ref="AL6:AP6"/>
     <mergeCell ref="AQ6:AU6"/>
     <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="F15:G32">
@@ -11208,12 +11212,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11434,26 +11446,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
+    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11478,12 +11485,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
-    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ガントチャート_Over Poured.xlsx
+++ b/ガントチャート_Over Poured.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="87">
   <si>
     <t>企画制作　進捗管理表</t>
     <phoneticPr fontId="19"/>
@@ -660,16 +660,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>オブジェクトの当たり判定</t>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>中間発表後</t>
     <phoneticPr fontId="19"/>
   </si>
@@ -729,6 +719,16 @@
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
+  <si>
+    <t>オブジェクト毎の処理</t>
+    <rPh sb="6" eb="7">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
 </sst>
 </file>
 
@@ -746,7 +746,7 @@
     <numFmt numFmtId="182" formatCode="yyyy/m/d\ \,\ aaa"/>
     <numFmt numFmtId="183" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ \ \ &quot;(&quot;aaa&quot;)&quot;"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,13 +932,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1539,7 +1532,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="39" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1907,10 +1900,16 @@
     <xf numFmtId="0" fontId="20" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="183" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1930,15 +1929,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2498,9 +2488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H45" sqref="H45"/>
+      <selection pane="topRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -2557,202 +2547,202 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="123">
+      <c r="E1" s="125">
         <v>45761</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A5" s="70"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="122">
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="121">
         <f>H6</f>
         <v>45761</v>
       </c>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122">
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121">
         <f>H5+7</f>
         <v>45768</v>
       </c>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122">
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121">
         <f>M5+7</f>
         <v>45775</v>
       </c>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122">
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121">
         <f>R5+7</f>
         <v>45782</v>
       </c>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122">
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121">
         <f>W5+7</f>
         <v>45789</v>
       </c>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122">
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="121"/>
+      <c r="AG5" s="121">
         <f>AB5+7</f>
         <v>45796</v>
       </c>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="122"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="122"/>
-      <c r="AL5" s="122">
+      <c r="AH5" s="121"/>
+      <c r="AI5" s="121"/>
+      <c r="AJ5" s="121"/>
+      <c r="AK5" s="121"/>
+      <c r="AL5" s="121">
         <f>AG5+7</f>
         <v>45803</v>
       </c>
-      <c r="AM5" s="122"/>
-      <c r="AN5" s="122"/>
-      <c r="AO5" s="122"/>
-      <c r="AP5" s="122"/>
-      <c r="AQ5" s="122">
+      <c r="AM5" s="121"/>
+      <c r="AN5" s="121"/>
+      <c r="AO5" s="121"/>
+      <c r="AP5" s="121"/>
+      <c r="AQ5" s="121">
         <f>AL5+7</f>
         <v>45810</v>
       </c>
-      <c r="AR5" s="122"/>
-      <c r="AS5" s="122"/>
-      <c r="AT5" s="122"/>
-      <c r="AU5" s="122"/>
-      <c r="AV5" s="122">
+      <c r="AR5" s="121"/>
+      <c r="AS5" s="121"/>
+      <c r="AT5" s="121"/>
+      <c r="AU5" s="121"/>
+      <c r="AV5" s="121">
         <f>AQ5+7</f>
         <v>45817</v>
       </c>
-      <c r="AW5" s="122"/>
-      <c r="AX5" s="122"/>
-      <c r="AY5" s="122"/>
-      <c r="AZ5" s="122"/>
-      <c r="BA5" s="122">
+      <c r="AW5" s="121"/>
+      <c r="AX5" s="121"/>
+      <c r="AY5" s="121"/>
+      <c r="AZ5" s="121"/>
+      <c r="BA5" s="121">
         <f>AV5+7</f>
         <v>45824</v>
       </c>
-      <c r="BB5" s="122"/>
-      <c r="BC5" s="122"/>
-      <c r="BD5" s="122"/>
-      <c r="BE5" s="122"/>
-      <c r="BF5" s="122">
+      <c r="BB5" s="121"/>
+      <c r="BC5" s="121"/>
+      <c r="BD5" s="121"/>
+      <c r="BE5" s="121"/>
+      <c r="BF5" s="121">
         <f>BA5+7</f>
         <v>45831</v>
       </c>
-      <c r="BG5" s="122"/>
-      <c r="BH5" s="122"/>
-      <c r="BI5" s="122"/>
-      <c r="BJ5" s="122"/>
-      <c r="BK5" s="122">
+      <c r="BG5" s="121"/>
+      <c r="BH5" s="121"/>
+      <c r="BI5" s="121"/>
+      <c r="BJ5" s="121"/>
+      <c r="BK5" s="121">
         <f>BF5+7</f>
         <v>45838</v>
       </c>
-      <c r="BL5" s="122"/>
-      <c r="BM5" s="122"/>
-      <c r="BN5" s="122"/>
-      <c r="BO5" s="122"/>
-      <c r="BP5" s="122">
+      <c r="BL5" s="121"/>
+      <c r="BM5" s="121"/>
+      <c r="BN5" s="121"/>
+      <c r="BO5" s="121"/>
+      <c r="BP5" s="121">
         <f>BK5+7</f>
         <v>45845</v>
       </c>
-      <c r="BQ5" s="122"/>
-      <c r="BR5" s="122"/>
-      <c r="BS5" s="122"/>
-      <c r="BT5" s="122"/>
-      <c r="BU5" s="122">
+      <c r="BQ5" s="121"/>
+      <c r="BR5" s="121"/>
+      <c r="BS5" s="121"/>
+      <c r="BT5" s="121"/>
+      <c r="BU5" s="121">
         <f>BP5+7</f>
         <v>45852</v>
       </c>
-      <c r="BV5" s="122"/>
-      <c r="BW5" s="122"/>
-      <c r="BX5" s="122"/>
-      <c r="BY5" s="122"/>
-      <c r="BZ5" s="122">
+      <c r="BV5" s="121"/>
+      <c r="BW5" s="121"/>
+      <c r="BX5" s="121"/>
+      <c r="BY5" s="121"/>
+      <c r="BZ5" s="121">
         <f>BU5+7</f>
         <v>45859</v>
       </c>
-      <c r="CA5" s="122"/>
-      <c r="CB5" s="122"/>
-      <c r="CC5" s="122"/>
-      <c r="CD5" s="122"/>
-      <c r="CE5" s="122">
+      <c r="CA5" s="121"/>
+      <c r="CB5" s="121"/>
+      <c r="CC5" s="121"/>
+      <c r="CD5" s="121"/>
+      <c r="CE5" s="121">
         <f>BZ5+7</f>
         <v>45866</v>
       </c>
-      <c r="CF5" s="122"/>
-      <c r="CG5" s="122"/>
-      <c r="CH5" s="122"/>
-      <c r="CI5" s="122"/>
-      <c r="CJ5" s="122">
+      <c r="CF5" s="121"/>
+      <c r="CG5" s="121"/>
+      <c r="CH5" s="121"/>
+      <c r="CI5" s="121"/>
+      <c r="CJ5" s="121">
         <f>CE5+7</f>
         <v>45873</v>
       </c>
-      <c r="CK5" s="122"/>
-      <c r="CL5" s="122"/>
-      <c r="CM5" s="122"/>
-      <c r="CN5" s="122"/>
+      <c r="CK5" s="121"/>
+      <c r="CL5" s="121"/>
+      <c r="CM5" s="121"/>
+      <c r="CN5" s="121"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="130"/>
-      <c r="F6" s="131" t="s">
+      <c r="E6" s="123"/>
+      <c r="F6" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="130"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -4662,7 +4652,7 @@
     </row>
     <row r="20" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="77" t="s">
         <v>46</v>
@@ -5810,7 +5800,7 @@
     </row>
     <row r="31" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="41" t="s">
         <v>39</v>
@@ -6546,14 +6536,14 @@
     </row>
     <row r="38" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="54" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="54"/>
       <c r="D38" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
@@ -6653,7 +6643,7 @@
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
@@ -6751,15 +6741,21 @@
       <c r="B40" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="80"/>
+      <c r="C40" s="80">
+        <v>100</v>
+      </c>
       <c r="D40" s="81">
         <v>45790</v>
       </c>
       <c r="E40" s="81">
         <v>45796</v>
       </c>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
+      <c r="F40" s="81">
+        <v>45790</v>
+      </c>
+      <c r="G40" s="81">
+        <v>45797</v>
+      </c>
       <c r="H40" s="82"/>
       <c r="I40" s="83"/>
       <c r="J40" s="83"/>
@@ -6848,20 +6844,26 @@
     </row>
     <row r="41" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="85" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="86"/>
+      <c r="C41" s="86">
+        <v>100</v>
+      </c>
       <c r="D41" s="87">
         <v>45790</v>
       </c>
       <c r="E41" s="87">
         <v>45796</v>
       </c>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
+      <c r="F41" s="87">
+        <v>45790</v>
+      </c>
+      <c r="G41" s="87">
+        <v>45797</v>
+      </c>
       <c r="H41" s="88"/>
       <c r="I41" s="89"/>
       <c r="J41" s="89"/>
@@ -6883,12 +6885,12 @@
       <c r="Z41" s="89"/>
       <c r="AA41" s="89"/>
       <c r="AB41" s="89"/>
-      <c r="AC41" s="121"/>
-      <c r="AD41" s="89"/>
-      <c r="AE41" s="89"/>
-      <c r="AF41" s="89"/>
-      <c r="AG41" s="89"/>
-      <c r="AH41" s="89"/>
+      <c r="AC41" s="76"/>
+      <c r="AD41" s="76"/>
+      <c r="AE41" s="76"/>
+      <c r="AF41" s="76"/>
+      <c r="AG41" s="76"/>
+      <c r="AH41" s="120"/>
       <c r="AI41" s="89"/>
       <c r="AJ41" s="89"/>
       <c r="AK41" s="89"/>
@@ -6950,13 +6952,13 @@
     </row>
     <row r="42" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="85" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B42" s="86" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="86">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D42" s="87">
         <v>45790</v>
@@ -6964,8 +6966,12 @@
       <c r="E42" s="87">
         <v>45796</v>
       </c>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="87">
+        <v>45790</v>
+      </c>
+      <c r="G42" s="87">
+        <v>45797</v>
+      </c>
       <c r="H42" s="88"/>
       <c r="I42" s="89"/>
       <c r="J42" s="89"/>
@@ -6992,7 +6998,7 @@
       <c r="AE42" s="76"/>
       <c r="AF42" s="76"/>
       <c r="AG42" s="76"/>
-      <c r="AH42" s="89"/>
+      <c r="AH42" s="120"/>
       <c r="AI42" s="89"/>
       <c r="AJ42" s="89"/>
       <c r="AK42" s="89"/>
@@ -7060,14 +7066,12 @@
         <v>39</v>
       </c>
       <c r="C43" s="86">
-        <v>50</v>
-      </c>
-      <c r="D43" s="87">
-        <v>45790</v>
-      </c>
-      <c r="E43" s="87">
-        <v>45796</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D43" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="87"/>
       <c r="F43" s="87"/>
       <c r="G43" s="87"/>
       <c r="H43" s="88"/>
@@ -7091,11 +7095,11 @@
       <c r="Z43" s="89"/>
       <c r="AA43" s="89"/>
       <c r="AB43" s="89"/>
-      <c r="AC43" s="76"/>
-      <c r="AD43" s="76"/>
-      <c r="AE43" s="76"/>
-      <c r="AF43" s="76"/>
-      <c r="AG43" s="76"/>
+      <c r="AC43" s="89"/>
+      <c r="AD43" s="89"/>
+      <c r="AE43" s="89"/>
+      <c r="AF43" s="89"/>
+      <c r="AG43" s="89"/>
       <c r="AH43" s="89"/>
       <c r="AI43" s="89"/>
       <c r="AJ43" s="89"/>
@@ -7158,7 +7162,7 @@
     </row>
     <row r="44" spans="1:92" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="86" t="s">
         <v>39</v>
@@ -7462,7 +7466,7 @@
     </row>
     <row r="47" spans="1:92" s="119" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="114" t="s">
         <v>39</v>
@@ -7769,6 +7773,16 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="26">
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:Q5"/>
     <mergeCell ref="CE5:CI5"/>
     <mergeCell ref="CJ5:CN5"/>
     <mergeCell ref="D6:E6"/>
@@ -7785,20 +7799,10 @@
     <mergeCell ref="AL5:AP5"/>
     <mergeCell ref="AQ5:AU5"/>
     <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
-  <conditionalFormatting sqref="F19:G21 F28:G32 F33 F38:G49">
-    <cfRule type="expression" dxfId="5" priority="8">
+  <conditionalFormatting sqref="F19:G21 F28:G32 F33 F38:G39 F43:G49">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>D19&lt;F19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7868,208 +7872,208 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="123">
+      <c r="E1" s="125">
         <v>45761</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:92" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A6" s="70"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="122">
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="121">
         <f>H7</f>
         <v>45761</v>
       </c>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122">
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121">
         <f>H6+7</f>
         <v>45768</v>
       </c>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="122">
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121">
         <f>M6+7</f>
         <v>45775</v>
       </c>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122">
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121">
         <f>R6+7</f>
         <v>45782</v>
       </c>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122">
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121">
         <f>W6+7</f>
         <v>45789</v>
       </c>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122">
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="121">
         <f>AB6+7</f>
         <v>45796</v>
       </c>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="122">
+      <c r="AH6" s="121"/>
+      <c r="AI6" s="121"/>
+      <c r="AJ6" s="121"/>
+      <c r="AK6" s="121"/>
+      <c r="AL6" s="121">
         <f>AG6+7</f>
         <v>45803</v>
       </c>
-      <c r="AM6" s="122"/>
-      <c r="AN6" s="122"/>
-      <c r="AO6" s="122"/>
-      <c r="AP6" s="122"/>
-      <c r="AQ6" s="122">
+      <c r="AM6" s="121"/>
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="121"/>
+      <c r="AQ6" s="121">
         <f>AL6+7</f>
         <v>45810</v>
       </c>
-      <c r="AR6" s="122"/>
-      <c r="AS6" s="122"/>
-      <c r="AT6" s="122"/>
-      <c r="AU6" s="122"/>
-      <c r="AV6" s="122">
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121">
         <f>AQ6+7</f>
         <v>45817</v>
       </c>
-      <c r="AW6" s="122"/>
-      <c r="AX6" s="122"/>
-      <c r="AY6" s="122"/>
-      <c r="AZ6" s="122"/>
-      <c r="BA6" s="122">
+      <c r="AW6" s="121"/>
+      <c r="AX6" s="121"/>
+      <c r="AY6" s="121"/>
+      <c r="AZ6" s="121"/>
+      <c r="BA6" s="121">
         <f>AV6+7</f>
         <v>45824</v>
       </c>
-      <c r="BB6" s="122"/>
-      <c r="BC6" s="122"/>
-      <c r="BD6" s="122"/>
-      <c r="BE6" s="122"/>
-      <c r="BF6" s="122">
+      <c r="BB6" s="121"/>
+      <c r="BC6" s="121"/>
+      <c r="BD6" s="121"/>
+      <c r="BE6" s="121"/>
+      <c r="BF6" s="121">
         <f>BA6+7</f>
         <v>45831</v>
       </c>
-      <c r="BG6" s="122"/>
-      <c r="BH6" s="122"/>
-      <c r="BI6" s="122"/>
-      <c r="BJ6" s="122"/>
-      <c r="BK6" s="122">
+      <c r="BG6" s="121"/>
+      <c r="BH6" s="121"/>
+      <c r="BI6" s="121"/>
+      <c r="BJ6" s="121"/>
+      <c r="BK6" s="121">
         <f>BF6+7</f>
         <v>45838</v>
       </c>
-      <c r="BL6" s="122"/>
-      <c r="BM6" s="122"/>
-      <c r="BN6" s="122"/>
-      <c r="BO6" s="122"/>
-      <c r="BP6" s="122">
+      <c r="BL6" s="121"/>
+      <c r="BM6" s="121"/>
+      <c r="BN6" s="121"/>
+      <c r="BO6" s="121"/>
+      <c r="BP6" s="121">
         <f>BK6+7</f>
         <v>45845</v>
       </c>
-      <c r="BQ6" s="122"/>
-      <c r="BR6" s="122"/>
-      <c r="BS6" s="122"/>
-      <c r="BT6" s="122"/>
-      <c r="BU6" s="122">
+      <c r="BQ6" s="121"/>
+      <c r="BR6" s="121"/>
+      <c r="BS6" s="121"/>
+      <c r="BT6" s="121"/>
+      <c r="BU6" s="121">
         <f>BP6+7</f>
         <v>45852</v>
       </c>
-      <c r="BV6" s="122"/>
-      <c r="BW6" s="122"/>
-      <c r="BX6" s="122"/>
-      <c r="BY6" s="122"/>
-      <c r="BZ6" s="122">
+      <c r="BV6" s="121"/>
+      <c r="BW6" s="121"/>
+      <c r="BX6" s="121"/>
+      <c r="BY6" s="121"/>
+      <c r="BZ6" s="121">
         <f>BU6+7</f>
         <v>45859</v>
       </c>
-      <c r="CA6" s="122"/>
-      <c r="CB6" s="122"/>
-      <c r="CC6" s="122"/>
-      <c r="CD6" s="122"/>
-      <c r="CE6" s="122">
+      <c r="CA6" s="121"/>
+      <c r="CB6" s="121"/>
+      <c r="CC6" s="121"/>
+      <c r="CD6" s="121"/>
+      <c r="CE6" s="121">
         <f>BZ6+7</f>
         <v>45866</v>
       </c>
-      <c r="CF6" s="122"/>
-      <c r="CG6" s="122"/>
-      <c r="CH6" s="122"/>
-      <c r="CI6" s="122"/>
-      <c r="CJ6" s="122">
+      <c r="CF6" s="121"/>
+      <c r="CG6" s="121"/>
+      <c r="CH6" s="121"/>
+      <c r="CI6" s="121"/>
+      <c r="CJ6" s="121">
         <f>CE6+7</f>
         <v>45873</v>
       </c>
-      <c r="CK6" s="122"/>
-      <c r="CL6" s="122"/>
-      <c r="CM6" s="122"/>
-      <c r="CN6" s="122"/>
+      <c r="CK6" s="121"/>
+      <c r="CL6" s="121"/>
+      <c r="CM6" s="121"/>
+      <c r="CN6" s="121"/>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="66"/>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131" t="s">
+      <c r="E7" s="123"/>
+      <c r="F7" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="130"/>
+      <c r="G7" s="123"/>
       <c r="H7" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -11151,18 +11155,6 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="28">
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
     <mergeCell ref="CE6:CI6"/>
     <mergeCell ref="CJ6:CN6"/>
     <mergeCell ref="D7:E7"/>
@@ -11179,30 +11171,42 @@
     <mergeCell ref="AL6:AP6"/>
     <mergeCell ref="AQ6:AU6"/>
     <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="F15:G32">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>D15&lt;F15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>E9&lt;G9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>D9&lt;F9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G14">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>E10&lt;G10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F14">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>D10&lt;F10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11212,20 +11216,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11446,21 +11442,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
-    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11485,9 +11486,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
+    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ガントチャート_Over Poured.xlsx
+++ b/ガントチャート_Over Poured.xlsx
@@ -1903,15 +1903,6 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="183" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1929,6 +1920,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2488,9 +2488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D43" sqref="D43"/>
+      <selection pane="topRight" activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -2547,53 +2547,53 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="125">
+      <c r="E1" s="122">
         <v>45761</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A5" s="70"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="130"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
       <c r="H5" s="121">
         <f>H6</f>
         <v>45761</v>
@@ -2735,14 +2735,14 @@
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="124" t="s">
+      <c r="E6" s="129"/>
+      <c r="F6" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="123"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -7272,9 +7272,11 @@
         <v>45797</v>
       </c>
       <c r="E45" s="108">
-        <v>45802</v>
-      </c>
-      <c r="F45" s="108"/>
+        <v>45803</v>
+      </c>
+      <c r="F45" s="108">
+        <v>45797</v>
+      </c>
       <c r="G45" s="108"/>
       <c r="H45" s="109"/>
       <c r="I45" s="110"/>
@@ -7374,9 +7376,11 @@
         <v>45797</v>
       </c>
       <c r="E46" s="115">
-        <v>45802</v>
-      </c>
-      <c r="F46" s="115"/>
+        <v>45803</v>
+      </c>
+      <c r="F46" s="115">
+        <v>45797</v>
+      </c>
       <c r="G46" s="115"/>
       <c r="H46" s="116"/>
       <c r="I46" s="117"/>
@@ -7404,11 +7408,11 @@
       <c r="AE46" s="117"/>
       <c r="AF46" s="117"/>
       <c r="AG46" s="117"/>
-      <c r="AH46" s="117"/>
-      <c r="AI46" s="117"/>
-      <c r="AJ46" s="117"/>
-      <c r="AK46" s="117"/>
-      <c r="AL46" s="117"/>
+      <c r="AH46" s="76"/>
+      <c r="AI46" s="76"/>
+      <c r="AJ46" s="76"/>
+      <c r="AK46" s="76"/>
+      <c r="AL46" s="76"/>
       <c r="AM46" s="117"/>
       <c r="AN46" s="117"/>
       <c r="AO46" s="117"/>
@@ -7476,9 +7480,11 @@
         <v>45797</v>
       </c>
       <c r="E47" s="115">
-        <v>45802</v>
-      </c>
-      <c r="F47" s="115"/>
+        <v>45803</v>
+      </c>
+      <c r="F47" s="115">
+        <v>45797</v>
+      </c>
       <c r="G47" s="115"/>
       <c r="H47" s="116"/>
       <c r="I47" s="117"/>
@@ -7506,11 +7512,11 @@
       <c r="AE47" s="117"/>
       <c r="AF47" s="117"/>
       <c r="AG47" s="117"/>
-      <c r="AH47" s="117"/>
-      <c r="AI47" s="117"/>
-      <c r="AJ47" s="117"/>
-      <c r="AK47" s="117"/>
-      <c r="AL47" s="117"/>
+      <c r="AH47" s="76"/>
+      <c r="AI47" s="76"/>
+      <c r="AJ47" s="76"/>
+      <c r="AK47" s="76"/>
+      <c r="AL47" s="76"/>
       <c r="AM47" s="117"/>
       <c r="AN47" s="117"/>
       <c r="AO47" s="117"/>
@@ -7773,16 +7779,6 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="26">
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:Q5"/>
     <mergeCell ref="CE5:CI5"/>
     <mergeCell ref="CJ5:CN5"/>
     <mergeCell ref="D6:E6"/>
@@ -7799,10 +7795,20 @@
     <mergeCell ref="AL5:AP5"/>
     <mergeCell ref="AQ5:AU5"/>
     <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
-  <conditionalFormatting sqref="F19:G21 F28:G32 F33 F38:G39 F43:G49">
-    <cfRule type="expression" dxfId="0" priority="8">
+  <conditionalFormatting sqref="F19:G21 F28:G32 F33 F38:G39 F43:G44 F48:G49 G45:G47">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>D19&lt;F19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7872,44 +7878,44 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="125">
+      <c r="E1" s="122">
         <v>45761</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
     </row>
     <row r="5" spans="1:92" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D5" s="131"/>
@@ -7919,12 +7925,12 @@
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A6" s="70"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="130"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="127"/>
       <c r="H6" s="121">
         <f>H7</f>
         <v>45761</v>
@@ -8066,14 +8072,14 @@
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="66"/>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="124" t="s">
+      <c r="E7" s="129"/>
+      <c r="F7" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="123"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -11155,6 +11161,18 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="28">
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
     <mergeCell ref="CE6:CI6"/>
     <mergeCell ref="CJ6:CN6"/>
     <mergeCell ref="D7:E7"/>
@@ -11171,42 +11189,30 @@
     <mergeCell ref="AL6:AP6"/>
     <mergeCell ref="AQ6:AU6"/>
     <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="F15:G32">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>D15&lt;F15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>E9&lt;G9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>D9&lt;F9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G14">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>E10&lt;G10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F14">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>D10&lt;F10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11216,12 +11222,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11442,26 +11456,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
+    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11486,12 +11495,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
-    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ガントチャート_Over Poured.xlsx
+++ b/ガントチャート_Over Poured.xlsx
@@ -746,7 +746,7 @@
     <numFmt numFmtId="182" formatCode="yyyy/m/d\ \,\ aaa"/>
     <numFmt numFmtId="183" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ \ \ &quot;(&quot;aaa&quot;)&quot;"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,8 +936,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1219,6 +1226,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -1532,7 +1551,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="39" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1903,6 +1922,15 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="183" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1922,20 +1950,20 @@
     <xf numFmtId="182" fontId="1" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="50" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="51" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2488,9 +2516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O48" sqref="O48"/>
+      <selection pane="topRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -2547,53 +2575,53 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="122">
+      <c r="E1" s="125">
         <v>45761</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A5" s="70"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="130"/>
       <c r="H5" s="121">
         <f>H6</f>
         <v>45761</v>
@@ -2735,14 +2763,14 @@
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130" t="s">
+      <c r="E6" s="123"/>
+      <c r="F6" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="129"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -5744,10 +5772,10 @@
       <c r="AK30" s="44"/>
       <c r="AL30" s="44"/>
       <c r="AM30" s="44"/>
-      <c r="AN30" s="44"/>
-      <c r="AO30" s="44"/>
-      <c r="AP30" s="44"/>
-      <c r="AQ30" s="44"/>
+      <c r="AN30" s="135"/>
+      <c r="AO30" s="135"/>
+      <c r="AP30" s="135"/>
+      <c r="AQ30" s="135"/>
       <c r="AR30" s="44"/>
       <c r="AS30" s="44"/>
       <c r="AT30" s="44"/>
@@ -7112,11 +7140,11 @@
       <c r="AQ43" s="89"/>
       <c r="AR43" s="89"/>
       <c r="AS43" s="89"/>
-      <c r="AT43" s="89"/>
-      <c r="AU43" s="89"/>
-      <c r="AV43" s="89"/>
-      <c r="AW43" s="89"/>
-      <c r="AX43" s="89"/>
+      <c r="AT43" s="76"/>
+      <c r="AU43" s="76"/>
+      <c r="AV43" s="76"/>
+      <c r="AW43" s="76"/>
+      <c r="AX43" s="76"/>
       <c r="AY43" s="89"/>
       <c r="AZ43" s="89"/>
       <c r="BA43" s="89"/>
@@ -7413,10 +7441,10 @@
       <c r="AJ46" s="76"/>
       <c r="AK46" s="76"/>
       <c r="AL46" s="76"/>
-      <c r="AM46" s="117"/>
-      <c r="AN46" s="117"/>
-      <c r="AO46" s="117"/>
-      <c r="AP46" s="117"/>
+      <c r="AM46" s="76"/>
+      <c r="AN46" s="76"/>
+      <c r="AO46" s="76"/>
+      <c r="AP46" s="76"/>
       <c r="AQ46" s="117"/>
       <c r="AR46" s="117"/>
       <c r="AS46" s="117"/>
@@ -7517,10 +7545,10 @@
       <c r="AJ47" s="76"/>
       <c r="AK47" s="76"/>
       <c r="AL47" s="76"/>
-      <c r="AM47" s="117"/>
-      <c r="AN47" s="117"/>
-      <c r="AO47" s="117"/>
-      <c r="AP47" s="117"/>
+      <c r="AM47" s="76"/>
+      <c r="AN47" s="76"/>
+      <c r="AO47" s="76"/>
+      <c r="AP47" s="76"/>
       <c r="AQ47" s="117"/>
       <c r="AR47" s="117"/>
       <c r="AS47" s="117"/>
@@ -7619,14 +7647,14 @@
       <c r="AJ48" s="96"/>
       <c r="AK48" s="96"/>
       <c r="AL48" s="96"/>
-      <c r="AM48" s="96"/>
-      <c r="AN48" s="96"/>
-      <c r="AO48" s="96"/>
-      <c r="AP48" s="96"/>
-      <c r="AQ48" s="96"/>
-      <c r="AR48" s="96"/>
-      <c r="AS48" s="96"/>
-      <c r="AT48" s="96"/>
+      <c r="AM48" s="76"/>
+      <c r="AN48" s="76"/>
+      <c r="AO48" s="76"/>
+      <c r="AP48" s="76"/>
+      <c r="AQ48" s="76"/>
+      <c r="AR48" s="76"/>
+      <c r="AS48" s="76"/>
+      <c r="AT48" s="134"/>
       <c r="AU48" s="96"/>
       <c r="AV48" s="96"/>
       <c r="AW48" s="96"/>
@@ -7721,14 +7749,14 @@
       <c r="AJ49" s="102"/>
       <c r="AK49" s="102"/>
       <c r="AL49" s="102"/>
-      <c r="AM49" s="102"/>
-      <c r="AN49" s="102"/>
-      <c r="AO49" s="102"/>
-      <c r="AP49" s="102"/>
-      <c r="AQ49" s="102"/>
-      <c r="AR49" s="102"/>
-      <c r="AS49" s="102"/>
-      <c r="AT49" s="102"/>
+      <c r="AM49" s="76"/>
+      <c r="AN49" s="76"/>
+      <c r="AO49" s="76"/>
+      <c r="AP49" s="76"/>
+      <c r="AQ49" s="76"/>
+      <c r="AR49" s="76"/>
+      <c r="AS49" s="76"/>
+      <c r="AT49" s="133"/>
       <c r="AU49" s="102"/>
       <c r="AV49" s="102"/>
       <c r="AW49" s="102"/>
@@ -7779,6 +7807,16 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="26">
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:Q5"/>
     <mergeCell ref="CE5:CI5"/>
     <mergeCell ref="CJ5:CN5"/>
     <mergeCell ref="D6:E6"/>
@@ -7795,16 +7833,6 @@
     <mergeCell ref="AL5:AP5"/>
     <mergeCell ref="AQ5:AU5"/>
     <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="F19:G21 F28:G32 F33 F38:G39 F43:G44 F48:G49 G45:G47">
@@ -7878,44 +7906,44 @@
       <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="122">
+      <c r="E1" s="125">
         <v>45761</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.45">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:92" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D5" s="131"/>
@@ -7925,12 +7953,12 @@
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A6" s="70"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="127"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="130"/>
       <c r="H6" s="121">
         <f>H7</f>
         <v>45761</v>
@@ -8072,14 +8100,14 @@
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="66"/>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="130" t="s">
+      <c r="E7" s="123"/>
+      <c r="F7" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="129"/>
+      <c r="G7" s="123"/>
       <c r="H7" s="67">
         <f>E1-WEEKDAY(E1,1)+2</f>
         <v>45761</v>
@@ -11161,18 +11189,6 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="28">
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
     <mergeCell ref="CE6:CI6"/>
     <mergeCell ref="CJ6:CN6"/>
     <mergeCell ref="D7:E7"/>
@@ -11189,6 +11205,18 @@
     <mergeCell ref="AL6:AP6"/>
     <mergeCell ref="AQ6:AU6"/>
     <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="F15:G32">
@@ -11222,20 +11250,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11456,21 +11476,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7a9b36dc-435e-4e61-bae3-9454d585c231">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
-    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11495,9 +11520,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a9b36dc-435e-4e61-bae3-9454d585c231"/>
+    <ds:schemaRef ds:uri="c2ac4452-c347-4ae3-9c4c-b3265bbc44cb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>